--- a/婚舰列表.xlsx
+++ b/婚舰列表.xlsx
@@ -9,6 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.0" hidden="1">Sheet1!$B$3:$B$103</definedName>
+    <definedName name="_xlchart.1" hidden="1">Sheet1!$B$3:$B$103</definedName>
+    <definedName name="_xlchart.2" hidden="1">Sheet1!$B$3:$B$103</definedName>
+    <definedName name="_xlchart.3" hidden="1">Sheet1!$B$3:$B$103</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,14 +24,912 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="270">
+  <si>
+    <t>舰 ID</t>
+  </si>
+  <si>
+    <t>舰名</t>
+  </si>
+  <si>
+    <t>舰种</t>
+  </si>
+  <si>
+    <t>裸装幸运</t>
+  </si>
+  <si>
+    <t>裸装初始幸运</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Верный</t>
+  </si>
+  <si>
+    <t>駆逐艦</t>
+  </si>
+  <si>
+    <t>1420</t>
+  </si>
+  <si>
+    <t>鈴谷航改二</t>
+  </si>
+  <si>
+    <t>軽空母</t>
+  </si>
+  <si>
+    <t>2671</t>
+  </si>
+  <si>
+    <t>熊野航改二</t>
+  </si>
+  <si>
+    <t>2517</t>
+  </si>
+  <si>
+    <t>瑞鳳改二乙</t>
+  </si>
+  <si>
+    <t>14862</t>
+  </si>
+  <si>
+    <t>伊26改</t>
+  </si>
+  <si>
+    <t>潜水空母</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>伊58改</t>
+  </si>
+  <si>
+    <t>19840</t>
+  </si>
+  <si>
+    <t>伊13改</t>
+  </si>
+  <si>
+    <t>19372</t>
+  </si>
+  <si>
+    <t>伊14改</t>
+  </si>
+  <si>
+    <t>12833</t>
+  </si>
+  <si>
+    <t>伊401改</t>
+  </si>
+  <si>
+    <t>882</t>
+  </si>
+  <si>
+    <t>阿武隈改二</t>
+  </si>
+  <si>
+    <t>軽巡洋艦</t>
+  </si>
+  <si>
+    <t>12903</t>
+  </si>
+  <si>
+    <t>U-511改</t>
+  </si>
+  <si>
+    <t>潜水艦</t>
+  </si>
+  <si>
+    <t>2676</t>
+  </si>
+  <si>
+    <t>翔鶴改二甲</t>
+  </si>
+  <si>
+    <t>装甲空母</t>
+  </si>
+  <si>
+    <t>5329</t>
+  </si>
+  <si>
+    <t>瑞鶴改二甲</t>
+  </si>
+  <si>
+    <t>32882</t>
+  </si>
+  <si>
+    <t>大鷹</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>伊8改</t>
+  </si>
+  <si>
+    <t>2908</t>
+  </si>
+  <si>
+    <t>伊19改</t>
+  </si>
+  <si>
+    <t>25838</t>
+  </si>
+  <si>
+    <t>伊504</t>
+  </si>
+  <si>
+    <t>22757</t>
+  </si>
+  <si>
+    <t>大鷹改二</t>
+  </si>
+  <si>
+    <t>2639</t>
+  </si>
+  <si>
+    <t>大淀改</t>
+  </si>
+  <si>
+    <t>33104</t>
+  </si>
+  <si>
+    <t>伊400改</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>摩耶改二</t>
+  </si>
+  <si>
+    <t>重巡洋艦</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>朝潮改二丁</t>
+  </si>
+  <si>
+    <t>36549</t>
+  </si>
+  <si>
+    <t>Ташкент改</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>北上改二</t>
+  </si>
+  <si>
+    <t>重雷装巡洋艦</t>
+  </si>
+  <si>
+    <t>19428</t>
+  </si>
+  <si>
+    <t>瑞鳳改二</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>霞改二</t>
+  </si>
+  <si>
+    <t>9411</t>
+  </si>
+  <si>
+    <t>Zara due</t>
+  </si>
+  <si>
+    <t>19304</t>
+  </si>
+  <si>
+    <t>呂500</t>
+  </si>
+  <si>
+    <t>19860</t>
+  </si>
+  <si>
+    <t>大鳳改</t>
+  </si>
+  <si>
+    <t>1456</t>
+  </si>
+  <si>
+    <t>長門改二</t>
+  </si>
+  <si>
+    <t>戦艦</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>伊168改</t>
+  </si>
+  <si>
+    <t>36034</t>
+  </si>
+  <si>
+    <t>Gambier Bay改</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>龍驤改二</t>
+  </si>
+  <si>
+    <t>6649</t>
+  </si>
+  <si>
+    <t>Prinz Eugen改</t>
+  </si>
+  <si>
+    <t>17459</t>
+  </si>
+  <si>
+    <t>Saratoga Mk.II</t>
+  </si>
+  <si>
+    <t>正規空母</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>大井改二</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>金剛改二</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>榛名改二</t>
+  </si>
+  <si>
+    <t>7167</t>
+  </si>
+  <si>
+    <t>Bismarck drei</t>
+  </si>
+  <si>
+    <t>973</t>
+  </si>
+  <si>
+    <t>比叡改二</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>霧島改二</t>
+  </si>
+  <si>
+    <t>18351</t>
+  </si>
+  <si>
+    <t>武蔵改二</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>鳥海改二</t>
+  </si>
+  <si>
+    <t>25627</t>
+  </si>
+  <si>
+    <t>Richelieu改</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>暁改二</t>
+  </si>
+  <si>
+    <t>22833</t>
+  </si>
+  <si>
+    <t>Гангут два</t>
+  </si>
+  <si>
+    <t>15139</t>
+  </si>
+  <si>
+    <t>Warspite改</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>千歳航改二</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>千代田航改二</t>
+  </si>
+  <si>
+    <t>7339</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>2777</t>
+  </si>
+  <si>
+    <t>Roma改</t>
+  </si>
+  <si>
+    <t>26092</t>
+  </si>
+  <si>
+    <t>Ark Royal改</t>
+  </si>
+  <si>
+    <t>36432</t>
+  </si>
+  <si>
+    <t>Jervis改</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>夕立改二</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>隼鷹改二</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>扶桑改二</t>
+  </si>
+  <si>
+    <t>航空戦艦</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>山城改二</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>由良改二</t>
+  </si>
+  <si>
+    <t>2778</t>
+  </si>
+  <si>
+    <t>陸奥改</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>日向改</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>時雨改二</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>伊勢改二</t>
+  </si>
+  <si>
+    <t>13737</t>
+  </si>
+  <si>
+    <t>大和改</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>利根改二</t>
+  </si>
+  <si>
+    <t>航空巡洋艦</t>
+  </si>
+  <si>
+    <t>3708</t>
+  </si>
+  <si>
+    <t>照月改</t>
+  </si>
+  <si>
+    <t>38759</t>
+  </si>
+  <si>
+    <t>大鳳</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>筑摩改二</t>
+  </si>
+  <si>
+    <t>867</t>
+  </si>
+  <si>
+    <t>鬼怒改二</t>
+  </si>
+  <si>
+    <t>24830</t>
+  </si>
+  <si>
+    <t>熊野改二</t>
+  </si>
+  <si>
+    <t>1418</t>
+  </si>
+  <si>
+    <t>加賀改</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>最上改</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>五十鈴改二</t>
+  </si>
+  <si>
+    <t>2790</t>
+  </si>
+  <si>
+    <t>Libeccio改</t>
+  </si>
+  <si>
+    <t>37267</t>
+  </si>
+  <si>
+    <t>Intrepid改</t>
+  </si>
+  <si>
+    <t>15147</t>
+  </si>
+  <si>
+    <t>三隈改</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>綾波改二</t>
+  </si>
+  <si>
+    <t>21808</t>
+  </si>
+  <si>
+    <t>鈴谷改二</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>赤城改</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>神通改二</t>
+  </si>
+  <si>
+    <t>1498</t>
+  </si>
+  <si>
+    <t>明石改</t>
+  </si>
+  <si>
+    <t>工作艦</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>祥鳳改</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>飛鷹改</t>
+  </si>
+  <si>
+    <t>42595</t>
+  </si>
+  <si>
+    <t>Samuel B.Roberts改</t>
+  </si>
+  <si>
+    <t>4648</t>
+  </si>
+  <si>
+    <t>飛龍改二</t>
+  </si>
+  <si>
+    <t>2780</t>
+  </si>
+  <si>
+    <t>蒼龍改二</t>
+  </si>
+  <si>
+    <t>2675</t>
+  </si>
+  <si>
+    <t>雲龍改</t>
+  </si>
+  <si>
+    <t>9585</t>
+  </si>
+  <si>
+    <t>天城改</t>
+  </si>
+  <si>
+    <t>15717</t>
+  </si>
+  <si>
+    <t>葛城改</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>川内改二</t>
+  </si>
+  <si>
+    <t>6871</t>
+  </si>
+  <si>
+    <t>Graf Zeppelin改</t>
+  </si>
+  <si>
+    <t>21516</t>
+  </si>
+  <si>
+    <t>瑞鶴改二</t>
+  </si>
+  <si>
+    <t>37266</t>
+  </si>
+  <si>
+    <t>Iowa改</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>那珂改二</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>妙高改二</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>那智改二</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>潮改二</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>睦月改二</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>如月改二</t>
+  </si>
+  <si>
+    <t>2687</t>
+  </si>
+  <si>
+    <t>江風改二</t>
+  </si>
+  <si>
+    <t>5313</t>
+  </si>
+  <si>
+    <t>長波改二</t>
+  </si>
+  <si>
+    <t>14883</t>
+  </si>
+  <si>
+    <t>Aquila改</t>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套环加运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马路油加运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加对潜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加总运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套环时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简体舰名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃谷航改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞凤改二乙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翔鹤改二甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞鹤改二甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鹰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鹰改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞凤改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大凤改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长门改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙骧改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾岛改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸟海改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隼鹰改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆奥改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时雨改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊势改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大凤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加贺改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五十铃改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绫波改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃谷改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祥凤改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞鹰改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞龙改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍龙改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云龙改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞鹤改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江风改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长波改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海防加运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套环加耐久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海防加耐久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加总耐久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千岁航改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚舰列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +953,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,8 +992,623 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>30</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>天划分发环数</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{C44DCF97-67C1-427D-82B1-FA4F03549E9D}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="29.851851851851851"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="图表 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +1653,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +1688,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +1870,4525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="11" max="11" width="6.625" customWidth="1"/>
+    <col min="12" max="12" width="7.125" customWidth="1"/>
+    <col min="13" max="13" width="6.25" customWidth="1"/>
+    <col min="14" max="14" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="5.875" customWidth="1"/>
+    <col min="18" max="18" width="12.625" customWidth="1"/>
+    <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="U2" s="9">
+        <f>COUNTA($C:$C)-1</f>
+        <v>101</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>42475</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2">
+        <f>G3-H3</f>
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <f>I3-K3-L3</f>
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3" s="2">
+        <v>6</v>
+      </c>
+      <c r="O3" s="2">
+        <f>N3-P3</f>
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="U3" s="5">
+        <f>COUNTIF($Q:$Q,V3)</f>
+        <v>32</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>42495</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2">
+        <f>G4-H4</f>
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <f>I4-K4-L4</f>
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>24</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>6</v>
+      </c>
+      <c r="O4" s="2">
+        <f>N4-P4</f>
+        <v>6</v>
+      </c>
+      <c r="P4"/>
+      <c r="Q4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+    </row>
+    <row r="5" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>42512</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="2">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2">
+        <f>G5-H5</f>
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <f>I5-K5-L5</f>
+        <v>6</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5" s="2">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2">
+        <f>N5-P5</f>
+        <v>8</v>
+      </c>
+      <c r="P5"/>
+      <c r="Q5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>42545</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2">
+        <v>50</v>
+      </c>
+      <c r="I6" s="2">
+        <f>G6-H6</f>
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f>I6-K6-L6</f>
+        <v>3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>4</v>
+      </c>
+      <c r="O6" s="2">
+        <f>N6-P6</f>
+        <v>4</v>
+      </c>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>42586</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2">
+        <f>G7-H7</f>
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <f>I7-K7-L7</f>
+        <v>3</v>
+      </c>
+      <c r="N7" s="2">
+        <v>8</v>
+      </c>
+      <c r="O7" s="2">
+        <f>N7-P7</f>
+        <v>8</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>42587</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2">
+        <f>G8-H8</f>
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <f>I8-K8-L8</f>
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>5</v>
+      </c>
+      <c r="O8" s="2">
+        <f>N8-P8</f>
+        <v>5</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>42600</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="2">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2">
+        <v>14</v>
+      </c>
+      <c r="I9" s="2">
+        <f>G9-H9</f>
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <f>I9-K9-L9</f>
+        <v>6</v>
+      </c>
+      <c r="N9" s="2">
+        <v>7</v>
+      </c>
+      <c r="O9" s="2">
+        <f>N9-P9</f>
+        <v>7</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>42629</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2">
+        <v>13</v>
+      </c>
+      <c r="I10" s="2">
+        <f>G10-H10</f>
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <f>I10-K10-L10</f>
+        <v>6</v>
+      </c>
+      <c r="N10" s="2">
+        <v>4</v>
+      </c>
+      <c r="O10" s="2">
+        <f>N10-P10</f>
+        <v>4</v>
+      </c>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>42630</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2">
+        <v>53</v>
+      </c>
+      <c r="H11" s="2">
+        <v>50</v>
+      </c>
+      <c r="I11" s="2">
+        <f>G11-H11</f>
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <f>I11-K11-L11</f>
+        <v>3</v>
+      </c>
+      <c r="N11" s="2">
+        <v>8</v>
+      </c>
+      <c r="O11" s="2">
+        <f>N11-P11</f>
+        <v>8</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <v>42698</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="2">
+        <v>43</v>
+      </c>
+      <c r="H12" s="2">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2">
+        <f>G12-H12</f>
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <f>I12-K12-L12</f>
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="N12" s="2">
+        <v>6</v>
+      </c>
+      <c r="O12" s="2">
+        <f>N12-P12</f>
+        <v>6</v>
+      </c>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8">
+        <v>42722</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <v>44</v>
+      </c>
+      <c r="H13" s="2">
+        <v>41</v>
+      </c>
+      <c r="I13" s="2">
+        <f>G13-H13</f>
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <f>I13-K13-L13</f>
+        <v>3</v>
+      </c>
+      <c r="N13" s="2">
+        <v>7</v>
+      </c>
+      <c r="O13" s="2">
+        <f>N13-P13</f>
+        <v>7</v>
+      </c>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8">
+        <v>42739</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2">
+        <v>31</v>
+      </c>
+      <c r="H14" s="2">
+        <v>25</v>
+      </c>
+      <c r="I14" s="2">
+        <f>G14-H14</f>
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <f>I14-K14-L14</f>
+        <v>6</v>
+      </c>
+      <c r="N14" s="2">
+        <v>4</v>
+      </c>
+      <c r="O14" s="2">
+        <f>N14-P14</f>
+        <v>4</v>
+      </c>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8">
+        <v>42767</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="2">
+        <v>38</v>
+      </c>
+      <c r="H15" s="2">
+        <v>34</v>
+      </c>
+      <c r="I15" s="2">
+        <f>G15-H15</f>
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <f>I15-K15-L15</f>
+        <v>4</v>
+      </c>
+      <c r="N15" s="2">
+        <v>4</v>
+      </c>
+      <c r="O15" s="2">
+        <f>N15-P15</f>
+        <v>4</v>
+      </c>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8">
+        <v>42776</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="2">
+        <v>19</v>
+      </c>
+      <c r="H16" s="2">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2">
+        <f>G16-H16</f>
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <f>I16-K16-L16</f>
+        <v>4</v>
+      </c>
+      <c r="N16" s="2">
+        <v>5</v>
+      </c>
+      <c r="O16" s="2">
+        <f>N16-P16</f>
+        <v>5</v>
+      </c>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8">
+        <v>42781</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="2">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2">
+        <v>10</v>
+      </c>
+      <c r="I17" s="2">
+        <f>G17-H17</f>
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <f>I17-K17-L17</f>
+        <v>6</v>
+      </c>
+      <c r="N17" s="2">
+        <v>4</v>
+      </c>
+      <c r="O17" s="2">
+        <f>N17-P17</f>
+        <v>4</v>
+      </c>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <v>42797</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="2">
+        <v>19</v>
+      </c>
+      <c r="H18" s="2">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2">
+        <f>G18-H18</f>
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <f>I18-K18-L18</f>
+        <v>4</v>
+      </c>
+      <c r="N18" s="2">
+        <v>8</v>
+      </c>
+      <c r="O18" s="2">
+        <f>N18-P18</f>
+        <v>8</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8">
+        <v>42798</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="2">
+        <v>19</v>
+      </c>
+      <c r="H19" s="2">
+        <v>13</v>
+      </c>
+      <c r="I19" s="2">
+        <f>G19-H19</f>
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <f>I19-K19-L19</f>
+        <v>6</v>
+      </c>
+      <c r="N19" s="2">
+        <v>8</v>
+      </c>
+      <c r="O19" s="2">
+        <f>N19-P19</f>
+        <v>8</v>
+      </c>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8">
+        <v>42799</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="2">
+        <v>47</v>
+      </c>
+      <c r="H20" s="2">
+        <v>41</v>
+      </c>
+      <c r="I20" s="2">
+        <f>G20-H20</f>
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <f>I20-K20-L20</f>
+        <v>6</v>
+      </c>
+      <c r="N20" s="2">
+        <v>8</v>
+      </c>
+      <c r="O20" s="2">
+        <f>N20-P20</f>
+        <v>8</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8">
+        <v>42802</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="2">
+        <v>19</v>
+      </c>
+      <c r="H21" s="2">
+        <v>14</v>
+      </c>
+      <c r="I21" s="2">
+        <f>G21-H21</f>
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <f>I21-K21-L21</f>
+        <v>5</v>
+      </c>
+      <c r="N21" s="2">
+        <v>8</v>
+      </c>
+      <c r="O21" s="2">
+        <f>N21-P21</f>
+        <v>8</v>
+      </c>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8">
+        <v>42809</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="2">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4</v>
+      </c>
+      <c r="I22" s="2">
+        <f>G22-H22</f>
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <f>I22-K22-L22</f>
+        <v>4</v>
+      </c>
+      <c r="N22" s="2">
+        <v>8</v>
+      </c>
+      <c r="O22" s="2">
+        <f>N22-P22</f>
+        <v>8</v>
+      </c>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8">
+        <v>42812</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="2">
+        <v>26</v>
+      </c>
+      <c r="H23" s="2">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2">
+        <f>G23-H23</f>
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <f>I23-K23-L23</f>
+        <v>6</v>
+      </c>
+      <c r="N23" s="2">
+        <v>5</v>
+      </c>
+      <c r="O23" s="2">
+        <f>N23-P23</f>
+        <v>5</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8">
+        <v>42814</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="2">
+        <v>27</v>
+      </c>
+      <c r="H24" s="2">
+        <v>22</v>
+      </c>
+      <c r="I24" s="2">
+        <f>G24-H24</f>
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <f>I24-K24-L24</f>
+        <v>5</v>
+      </c>
+      <c r="N24" s="2">
+        <v>3</v>
+      </c>
+      <c r="O24" s="2">
+        <f>N24-P24</f>
+        <v>3</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8">
+        <v>42828</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="2">
+        <v>23</v>
+      </c>
+      <c r="H25" s="2">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2">
+        <f>G25-H25</f>
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <f>I25-K25-L25</f>
+        <v>3</v>
+      </c>
+      <c r="N25" s="2">
+        <v>4</v>
+      </c>
+      <c r="O25" s="2">
+        <f>N25-P25</f>
+        <v>4</v>
+      </c>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8">
+        <v>42834</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="2">
+        <v>19</v>
+      </c>
+      <c r="H26" s="2">
+        <v>16</v>
+      </c>
+      <c r="I26" s="2">
+        <f>G26-H26</f>
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <f>I26-K26-L26</f>
+        <v>3</v>
+      </c>
+      <c r="N26" s="2">
+        <v>4</v>
+      </c>
+      <c r="O26" s="2">
+        <f>N26-P26</f>
+        <v>4</v>
+      </c>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="8">
+        <v>42860</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="2">
+        <v>16</v>
+      </c>
+      <c r="H27" s="2">
+        <v>13</v>
+      </c>
+      <c r="I27" s="2">
+        <f>G27-H27</f>
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <f>I27-K27-L27</f>
+        <v>3</v>
+      </c>
+      <c r="N27" s="2">
+        <v>6</v>
+      </c>
+      <c r="O27" s="2">
+        <f>N27-P27</f>
+        <v>6</v>
+      </c>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8">
+        <v>42879</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="2">
+        <v>19</v>
+      </c>
+      <c r="H28" s="2">
+        <v>13</v>
+      </c>
+      <c r="I28" s="2">
+        <f>G28-H28</f>
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <f>I28-K28-L28</f>
+        <v>6</v>
+      </c>
+      <c r="N28" s="2">
+        <v>7</v>
+      </c>
+      <c r="O28" s="2">
+        <f>N28-P28</f>
+        <v>7</v>
+      </c>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8">
+        <v>42879</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="2">
+        <v>18</v>
+      </c>
+      <c r="H29" s="2">
+        <v>14</v>
+      </c>
+      <c r="I29" s="2">
+        <f>G29-H29</f>
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <f>I29-K29-L29</f>
+        <v>4</v>
+      </c>
+      <c r="N29" s="2">
+        <v>6</v>
+      </c>
+      <c r="O29" s="2">
+        <f>N29-P29</f>
+        <v>6</v>
+      </c>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8">
+        <v>42880</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="2">
+        <v>23</v>
+      </c>
+      <c r="H30" s="2">
+        <v>17</v>
+      </c>
+      <c r="I30" s="2">
+        <f>G30-H30</f>
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <f>I30-K30-L30</f>
+        <v>6</v>
+      </c>
+      <c r="N30" s="2">
+        <v>5</v>
+      </c>
+      <c r="O30" s="2">
+        <f>N30-P30</f>
+        <v>5</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="8">
+        <v>42880</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="2">
+        <v>12</v>
+      </c>
+      <c r="H31" s="2">
+        <v>6</v>
+      </c>
+      <c r="I31" s="2">
+        <f>G31-H31</f>
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <f>I31-K31-L31</f>
+        <v>6</v>
+      </c>
+      <c r="N31" s="2">
+        <v>8</v>
+      </c>
+      <c r="O31" s="2">
+        <f>N31-P31</f>
+        <v>8</v>
+      </c>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>30</v>
+      </c>
+      <c r="B32" s="8">
+        <v>42882</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="2">
+        <v>54</v>
+      </c>
+      <c r="H32" s="2">
+        <v>50</v>
+      </c>
+      <c r="I32" s="2">
+        <f>G32-H32</f>
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <f>I32-K32-L32</f>
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2">
+        <v>5</v>
+      </c>
+      <c r="O32" s="2">
+        <f>N32-P32</f>
+        <v>5</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8">
+        <v>42883</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2">
+        <v>18</v>
+      </c>
+      <c r="H33" s="2">
+        <v>14</v>
+      </c>
+      <c r="I33" s="2">
+        <f>G33-H33</f>
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <f>I33-K33-L33</f>
+        <v>4</v>
+      </c>
+      <c r="N33" s="2">
+        <v>6</v>
+      </c>
+      <c r="O33" s="2">
+        <f>N33-P33</f>
+        <v>6</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>32</v>
+      </c>
+      <c r="B34" s="8">
+        <v>42883</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="2">
+        <v>15</v>
+      </c>
+      <c r="H34" s="2">
+        <v>12</v>
+      </c>
+      <c r="I34" s="2">
+        <f>G34-H34</f>
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <f>I34-K34-L34</f>
+        <v>3</v>
+      </c>
+      <c r="N34" s="2">
+        <v>8</v>
+      </c>
+      <c r="O34" s="2">
+        <f>N34-P34</f>
+        <v>8</v>
+      </c>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="8">
+        <v>42884</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2">
+        <v>17</v>
+      </c>
+      <c r="H35" s="2">
+        <v>13</v>
+      </c>
+      <c r="I35" s="2">
+        <f>G35-H35</f>
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <f>I35-K35-L35</f>
+        <v>4</v>
+      </c>
+      <c r="N35" s="2">
+        <v>7</v>
+      </c>
+      <c r="O35" s="2">
+        <f>N35-P35</f>
+        <v>7</v>
+      </c>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8">
+        <v>42884</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2">
+        <v>16</v>
+      </c>
+      <c r="H36" s="2">
+        <v>13</v>
+      </c>
+      <c r="I36" s="2">
+        <f>G36-H36</f>
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <f>I36-K36-L36</f>
+        <v>3</v>
+      </c>
+      <c r="N36" s="2">
+        <v>7</v>
+      </c>
+      <c r="O36" s="2">
+        <f>N36-P36</f>
+        <v>7</v>
+      </c>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8">
+        <v>42885</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="2">
+        <v>51</v>
+      </c>
+      <c r="H37" s="2">
+        <v>40</v>
+      </c>
+      <c r="I37" s="2">
+        <f>G37-H37</f>
+        <v>11</v>
+      </c>
+      <c r="J37">
+        <f>I37-K37-L37</f>
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>8</v>
+      </c>
+      <c r="N37" s="2">
+        <v>7</v>
+      </c>
+      <c r="O37" s="2">
+        <f>N37-P37</f>
+        <v>7</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
+        <v>36</v>
+      </c>
+      <c r="B38" s="8">
+        <v>42886</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="2">
+        <v>16</v>
+      </c>
+      <c r="H38" s="2">
+        <v>13</v>
+      </c>
+      <c r="I38" s="2">
+        <f>G38-H38</f>
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <f>I38-K38-L38</f>
+        <v>3</v>
+      </c>
+      <c r="N38" s="2">
+        <v>8</v>
+      </c>
+      <c r="O38" s="2">
+        <f>N38-P38</f>
+        <v>8</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="8">
+        <v>42886</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="2">
+        <v>19</v>
+      </c>
+      <c r="H39" s="2">
+        <v>14</v>
+      </c>
+      <c r="I39" s="2">
+        <f>G39-H39</f>
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <f>I39-K39-L39</f>
+        <v>5</v>
+      </c>
+      <c r="N39" s="2">
+        <v>8</v>
+      </c>
+      <c r="O39" s="2">
+        <f>N39-P39</f>
+        <v>8</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8">
+        <v>42890</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="2">
+        <v>46</v>
+      </c>
+      <c r="H40" s="2">
+        <v>40</v>
+      </c>
+      <c r="I40" s="2">
+        <f>G40-H40</f>
+        <v>6</v>
+      </c>
+      <c r="J40">
+        <f>I40-K40-L40</f>
+        <v>6</v>
+      </c>
+      <c r="N40" s="2">
+        <v>8</v>
+      </c>
+      <c r="O40" s="2">
+        <f>N40-P40</f>
+        <v>8</v>
+      </c>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="8">
+        <v>42921</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="2">
+        <v>17</v>
+      </c>
+      <c r="H41" s="2">
+        <v>12</v>
+      </c>
+      <c r="I41" s="2">
+        <f>G41-H41</f>
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <f>I41-K41-L41</f>
+        <v>5</v>
+      </c>
+      <c r="N41" s="2">
+        <v>6</v>
+      </c>
+      <c r="O41" s="2">
+        <f>N41-P41</f>
+        <v>6</v>
+      </c>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
+        <v>40</v>
+      </c>
+      <c r="B42" s="8">
+        <v>42935</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="2">
+        <v>36</v>
+      </c>
+      <c r="H42" s="2">
+        <v>30</v>
+      </c>
+      <c r="I42" s="2">
+        <f>G42-H42</f>
+        <v>6</v>
+      </c>
+      <c r="J42">
+        <f>I42-K42-L42</f>
+        <v>6</v>
+      </c>
+      <c r="N42" s="2">
+        <v>6</v>
+      </c>
+      <c r="O42" s="2">
+        <f>N42-P42</f>
+        <v>6</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="8">
+        <v>42979</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="2">
+        <v>12</v>
+      </c>
+      <c r="H43" s="2">
+        <v>8</v>
+      </c>
+      <c r="I43" s="2">
+        <f>G43-H43</f>
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <f>I43-K43-L43</f>
+        <v>4</v>
+      </c>
+      <c r="N43" s="2">
+        <v>6</v>
+      </c>
+      <c r="O43" s="2">
+        <f>N43-P43</f>
+        <v>6</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
+        <v>42</v>
+      </c>
+      <c r="B44" s="8">
+        <v>42980</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" s="2">
+        <v>33</v>
+      </c>
+      <c r="H44" s="2">
+        <v>30</v>
+      </c>
+      <c r="I44" s="2">
+        <f>G44-H44</f>
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <f>I44-K44-L44</f>
+        <v>3</v>
+      </c>
+      <c r="N44" s="2">
+        <v>6</v>
+      </c>
+      <c r="O44" s="2">
+        <f>N44-P44</f>
+        <v>6</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="8">
+        <v>42982</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="2">
+        <v>16</v>
+      </c>
+      <c r="H45" s="2">
+        <v>13</v>
+      </c>
+      <c r="I45" s="2">
+        <f>G45-H45</f>
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <f>I45-K45-L45</f>
+        <v>3</v>
+      </c>
+      <c r="N45" s="2">
+        <v>8</v>
+      </c>
+      <c r="O45" s="2">
+        <f>N45-P45</f>
+        <v>8</v>
+      </c>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
+        <v>44</v>
+      </c>
+      <c r="B46" s="8">
+        <v>42987</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="2">
+        <v>73</v>
+      </c>
+      <c r="H46" s="2">
+        <v>70</v>
+      </c>
+      <c r="I46" s="2">
+        <f>G46-H46</f>
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <f>I46-K46-L46</f>
+        <v>3</v>
+      </c>
+      <c r="N46" s="2">
+        <v>8</v>
+      </c>
+      <c r="O46" s="2">
+        <f>N46-P46</f>
+        <v>8</v>
+      </c>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="8">
+        <v>42988</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="2">
+        <v>17</v>
+      </c>
+      <c r="H47" s="2">
+        <v>12</v>
+      </c>
+      <c r="I47" s="2">
+        <f>G47-H47</f>
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <f>I47-K47-L47</f>
+        <v>5</v>
+      </c>
+      <c r="N47" s="2">
+        <v>8</v>
+      </c>
+      <c r="O47" s="2">
+        <f>N47-P47</f>
+        <v>8</v>
+      </c>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
+        <v>46</v>
+      </c>
+      <c r="B48" s="8">
+        <v>42993</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="2">
+        <v>25</v>
+      </c>
+      <c r="H48" s="2">
+        <v>19</v>
+      </c>
+      <c r="I48" s="2">
+        <f>G48-H48</f>
+        <v>6</v>
+      </c>
+      <c r="J48">
+        <f>I48-K48-L48</f>
+        <v>6</v>
+      </c>
+      <c r="N48" s="2">
+        <v>7</v>
+      </c>
+      <c r="O48" s="2">
+        <f>N48-P48</f>
+        <v>7</v>
+      </c>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="8">
+        <v>42993</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="2">
+        <v>27</v>
+      </c>
+      <c r="H49" s="2">
+        <v>24</v>
+      </c>
+      <c r="I49" s="2">
+        <f>G49-H49</f>
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <f>I49-K49-L49</f>
+        <v>3</v>
+      </c>
+      <c r="N49" s="2">
+        <v>8</v>
+      </c>
+      <c r="O49" s="2">
+        <f>N49-P49</f>
+        <v>8</v>
+      </c>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
+        <v>48</v>
+      </c>
+      <c r="B50" s="8">
+        <v>42996</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="2">
+        <v>21</v>
+      </c>
+      <c r="H50" s="2">
+        <v>17</v>
+      </c>
+      <c r="I50" s="2">
+        <f>G50-H50</f>
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <f>I50-K50-L50</f>
+        <v>4</v>
+      </c>
+      <c r="N50" s="2">
+        <v>7</v>
+      </c>
+      <c r="O50" s="2">
+        <f>N50-P50</f>
+        <v>7</v>
+      </c>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="8">
+        <v>43004</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="2">
+        <v>52</v>
+      </c>
+      <c r="H51" s="2">
+        <v>40</v>
+      </c>
+      <c r="I51" s="2">
+        <f>G51-H51</f>
+        <v>12</v>
+      </c>
+      <c r="J51">
+        <f>I51-K51-L51</f>
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>8</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51" s="2">
+        <v>5</v>
+      </c>
+      <c r="O51" s="2">
+        <f>N51-P51</f>
+        <v>5</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
+        <v>50</v>
+      </c>
+      <c r="B52" s="8">
+        <v>43008</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="2">
+        <v>22</v>
+      </c>
+      <c r="H52" s="2">
+        <v>16</v>
+      </c>
+      <c r="I52" s="2">
+        <f>G52-H52</f>
+        <v>6</v>
+      </c>
+      <c r="J52">
+        <f>I52-K52-L52</f>
+        <v>6</v>
+      </c>
+      <c r="N52" s="2">
+        <v>6</v>
+      </c>
+      <c r="O52" s="2">
+        <f>N52-P52</f>
+        <v>6</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="8">
+        <v>43010</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="2">
+        <v>16</v>
+      </c>
+      <c r="H53" s="2">
+        <v>13</v>
+      </c>
+      <c r="I53" s="2">
+        <f>G53-H53</f>
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <f>I53-K53-L53</f>
+        <v>3</v>
+      </c>
+      <c r="N53" s="2">
+        <v>9</v>
+      </c>
+      <c r="O53" s="2">
+        <f>N53-P53</f>
+        <v>9</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
+        <v>52</v>
+      </c>
+      <c r="B54" s="8">
+        <v>43034</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="2">
+        <v>49</v>
+      </c>
+      <c r="H54" s="2">
+        <v>44</v>
+      </c>
+      <c r="I54" s="2">
+        <f>G54-H54</f>
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <f>I54-K54-L54</f>
+        <v>5</v>
+      </c>
+      <c r="N54" s="2">
+        <v>4</v>
+      </c>
+      <c r="O54" s="2">
+        <f>N54-P54</f>
+        <v>4</v>
+      </c>
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="8">
+        <v>43035</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="2">
+        <v>15</v>
+      </c>
+      <c r="H55" s="2">
+        <v>11</v>
+      </c>
+      <c r="I55" s="2">
+        <f>G55-H55</f>
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <f>I55-K55-L55</f>
+        <v>4</v>
+      </c>
+      <c r="N55" s="2">
+        <v>5</v>
+      </c>
+      <c r="O55" s="2">
+        <f>N55-P55</f>
+        <v>5</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
+        <v>54</v>
+      </c>
+      <c r="B56" s="8">
+        <v>43042</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G56" s="2">
+        <v>46</v>
+      </c>
+      <c r="H56" s="2">
+        <v>40</v>
+      </c>
+      <c r="I56" s="2">
+        <f>G56-H56</f>
+        <v>6</v>
+      </c>
+      <c r="J56">
+        <f>I56-K56-L56</f>
+        <v>6</v>
+      </c>
+      <c r="N56" s="2">
+        <v>8</v>
+      </c>
+      <c r="O56" s="2">
+        <f>N56-P56</f>
+        <v>8</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="8">
+        <v>43045</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G57" s="2">
+        <v>35</v>
+      </c>
+      <c r="H57" s="2">
+        <v>30</v>
+      </c>
+      <c r="I57" s="2">
+        <f>G57-H57</f>
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <f>I57-K57-L57</f>
+        <v>5</v>
+      </c>
+      <c r="N57" s="2">
+        <v>8</v>
+      </c>
+      <c r="O57" s="2">
+        <f>N57-P57</f>
+        <v>8</v>
+      </c>
+      <c r="Q57" s="2"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="10">
+        <v>56</v>
+      </c>
+      <c r="B58" s="8">
+        <v>43048</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="2">
+        <v>18</v>
+      </c>
+      <c r="H58" s="2">
+        <v>13</v>
+      </c>
+      <c r="I58" s="2">
+        <f>G58-H58</f>
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <f>I58-K58-L58</f>
+        <v>5</v>
+      </c>
+      <c r="N58" s="2">
+        <v>6</v>
+      </c>
+      <c r="O58" s="2">
+        <f>N58-P58</f>
+        <v>6</v>
+      </c>
+      <c r="Q58" s="2"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="8">
+        <v>43049</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G59" s="2">
+        <v>15</v>
+      </c>
+      <c r="H59" s="2">
+        <v>10</v>
+      </c>
+      <c r="I59" s="2">
+        <f>G59-H59</f>
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <f>I59-K59-L59</f>
+        <v>5</v>
+      </c>
+      <c r="N59" s="2">
+        <v>7</v>
+      </c>
+      <c r="O59" s="2">
+        <f>N59-P59</f>
+        <v>7</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="10">
+        <v>58</v>
+      </c>
+      <c r="B60" s="8">
+        <v>43052</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2">
+        <v>18</v>
+      </c>
+      <c r="H60" s="2">
+        <v>12</v>
+      </c>
+      <c r="I60" s="2">
+        <f>G60-H60</f>
+        <v>6</v>
+      </c>
+      <c r="J60">
+        <f>I60-K60-L60</f>
+        <v>6</v>
+      </c>
+      <c r="N60" s="2">
+        <v>7</v>
+      </c>
+      <c r="O60" s="2">
+        <f>N60-P60</f>
+        <v>7</v>
+      </c>
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="8">
+        <v>43062</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="2">
+        <v>45</v>
+      </c>
+      <c r="H61" s="2">
+        <v>40</v>
+      </c>
+      <c r="I61" s="2">
+        <f>G61-H61</f>
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <f>I61-K61-L61</f>
+        <v>5</v>
+      </c>
+      <c r="N61" s="2">
+        <v>4</v>
+      </c>
+      <c r="O61" s="2">
+        <f>N61-P61</f>
+        <v>4</v>
+      </c>
+      <c r="Q61" s="2"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="10">
+        <v>60</v>
+      </c>
+      <c r="B62" s="8">
+        <v>43092</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" s="2">
+        <v>14</v>
+      </c>
+      <c r="H62" s="2">
+        <v>10</v>
+      </c>
+      <c r="I62" s="2">
+        <f>G62-H62</f>
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <f>I62-K62-L62</f>
+        <v>4</v>
+      </c>
+      <c r="N62" s="2">
+        <v>9</v>
+      </c>
+      <c r="O62" s="2">
+        <f>N62-P62</f>
+        <v>9</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="8">
+        <v>43094</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" s="2">
+        <v>38</v>
+      </c>
+      <c r="H63" s="2">
+        <v>35</v>
+      </c>
+      <c r="I63" s="2">
+        <f>G63-H63</f>
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <f>I63-K63-L63</f>
+        <v>3</v>
+      </c>
+      <c r="N63" s="2">
+        <v>8</v>
+      </c>
+      <c r="O63" s="2">
+        <f>N63-P63</f>
+        <v>8</v>
+      </c>
+      <c r="Q63" s="2"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="10">
+        <v>62</v>
+      </c>
+      <c r="B64" s="8">
+        <v>43150</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="2">
+        <v>14</v>
+      </c>
+      <c r="H64" s="2">
+        <v>8</v>
+      </c>
+      <c r="I64" s="2">
+        <f>G64-H64</f>
+        <v>6</v>
+      </c>
+      <c r="J64">
+        <f>I64-K64-L64</f>
+        <v>6</v>
+      </c>
+      <c r="N64" s="2">
+        <v>4</v>
+      </c>
+      <c r="O64" s="2">
+        <f>N64-P64</f>
+        <v>4</v>
+      </c>
+      <c r="Q64" s="2"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="8">
+        <v>43151</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="2">
+        <v>29</v>
+      </c>
+      <c r="H65" s="2">
+        <v>24</v>
+      </c>
+      <c r="I65" s="2">
+        <f>G65-H65</f>
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <f>I65-K65-L65</f>
+        <v>5</v>
+      </c>
+      <c r="N65" s="2">
+        <v>4</v>
+      </c>
+      <c r="O65" s="2">
+        <f>N65-P65</f>
+        <v>4</v>
+      </c>
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="10">
+        <v>64</v>
+      </c>
+      <c r="B66" s="8">
+        <v>43183</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2">
+        <v>48</v>
+      </c>
+      <c r="H66" s="2">
+        <v>42</v>
+      </c>
+      <c r="I66" s="2">
+        <f>G66-H66</f>
+        <v>6</v>
+      </c>
+      <c r="J66">
+        <f>I66-K66-L66</f>
+        <v>6</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66" s="2">
+        <v>7</v>
+      </c>
+      <c r="O66" s="2">
+        <f>N66-P66</f>
+        <v>7</v>
+      </c>
+      <c r="Q66" s="2"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="8">
+        <v>43193</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2">
+        <v>16</v>
+      </c>
+      <c r="H67" s="2">
+        <v>13</v>
+      </c>
+      <c r="I67" s="2">
+        <f>G67-H67</f>
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <f>I67-K67-L67</f>
+        <v>3</v>
+      </c>
+      <c r="N67" s="2">
+        <v>7</v>
+      </c>
+      <c r="O67" s="2">
+        <f>N67-P67</f>
+        <v>7</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="10">
+        <v>66</v>
+      </c>
+      <c r="B68" s="8">
+        <v>43193</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2">
+        <v>16</v>
+      </c>
+      <c r="H68" s="2">
+        <v>12</v>
+      </c>
+      <c r="I68" s="2">
+        <f>G68-H68</f>
+        <v>4</v>
+      </c>
+      <c r="J68">
+        <f>I68-K68-L68</f>
+        <v>4</v>
+      </c>
+      <c r="N68" s="2">
+        <v>7</v>
+      </c>
+      <c r="O68" s="2">
+        <f>N68-P68</f>
+        <v>7</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="8">
+        <v>43196</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2">
+        <v>18</v>
+      </c>
+      <c r="H69" s="2">
+        <v>15</v>
+      </c>
+      <c r="I69" s="2">
+        <f>G69-H69</f>
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <f>I69-K69-L69</f>
+        <v>3</v>
+      </c>
+      <c r="N69" s="2">
+        <v>7</v>
+      </c>
+      <c r="O69" s="2">
+        <f>N69-P69</f>
+        <v>7</v>
+      </c>
+      <c r="Q69" s="2"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="10">
+        <v>68</v>
+      </c>
+      <c r="B70" s="8">
+        <v>43199</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="2">
+        <v>59</v>
+      </c>
+      <c r="H70" s="2">
+        <v>55</v>
+      </c>
+      <c r="I70" s="2">
+        <f>G70-H70</f>
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <f>I70-K70-L70</f>
+        <v>4</v>
+      </c>
+      <c r="N70" s="2">
+        <v>5</v>
+      </c>
+      <c r="O70" s="2">
+        <f>N70-P70</f>
+        <v>5</v>
+      </c>
+      <c r="Q70" s="2"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="8">
+        <v>43200</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="2">
+        <v>23</v>
+      </c>
+      <c r="H71" s="2">
+        <v>19</v>
+      </c>
+      <c r="I71" s="2">
+        <f>G71-H71</f>
+        <v>4</v>
+      </c>
+      <c r="J71">
+        <f>I71-K71-L71</f>
+        <v>4</v>
+      </c>
+      <c r="N71" s="2">
+        <v>4</v>
+      </c>
+      <c r="O71" s="2">
+        <f>N71-P71</f>
+        <v>4</v>
+      </c>
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="10">
+        <v>70</v>
+      </c>
+      <c r="B72" s="8">
+        <v>43201</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G72" s="2">
+        <v>21</v>
+      </c>
+      <c r="H72" s="2">
+        <v>15</v>
+      </c>
+      <c r="I72" s="2">
+        <f>G72-H72</f>
+        <v>6</v>
+      </c>
+      <c r="J72">
+        <f>I72-K72-L72</f>
+        <v>6</v>
+      </c>
+      <c r="N72" s="2">
+        <v>7</v>
+      </c>
+      <c r="O72" s="2">
+        <f>N72-P72</f>
+        <v>7</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="8">
+        <v>43203</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G73" s="2">
+        <v>19</v>
+      </c>
+      <c r="H73" s="2">
+        <v>14</v>
+      </c>
+      <c r="I73" s="2">
+        <f>G73-H73</f>
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <f>I73-K73-L73</f>
+        <v>5</v>
+      </c>
+      <c r="N73" s="2">
+        <v>7</v>
+      </c>
+      <c r="O73" s="2">
+        <f>N73-P73</f>
+        <v>7</v>
+      </c>
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74" s="10">
+        <v>72</v>
+      </c>
+      <c r="B74" s="8">
+        <v>43207</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2">
+        <v>47</v>
+      </c>
+      <c r="H74" s="2">
+        <v>42</v>
+      </c>
+      <c r="I74" s="2">
+        <f>G74-H74</f>
+        <v>5</v>
+      </c>
+      <c r="J74">
+        <f>I74-K74-L74</f>
+        <v>5</v>
+      </c>
+      <c r="N74" s="2">
+        <v>7</v>
+      </c>
+      <c r="O74" s="2">
+        <f>N74-P74</f>
+        <v>7</v>
+      </c>
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="8">
+        <v>43209</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G75" s="2">
+        <v>53</v>
+      </c>
+      <c r="H75" s="2">
+        <v>50</v>
+      </c>
+      <c r="I75" s="2">
+        <f>G75-H75</f>
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <f>I75-K75-L75</f>
+        <v>3</v>
+      </c>
+      <c r="N75" s="2">
+        <v>7</v>
+      </c>
+      <c r="O75" s="2">
+        <f>N75-P75</f>
+        <v>7</v>
+      </c>
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A76" s="10">
+        <v>74</v>
+      </c>
+      <c r="B76" s="8">
+        <v>43211</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2">
+        <v>18</v>
+      </c>
+      <c r="H76" s="2">
+        <v>15</v>
+      </c>
+      <c r="I76" s="2">
+        <f>G76-H76</f>
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <f>I76-K76-L76</f>
+        <v>3</v>
+      </c>
+      <c r="N76" s="2">
+        <v>5</v>
+      </c>
+      <c r="O76" s="2">
+        <f>N76-P76</f>
+        <v>5</v>
+      </c>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="8">
+        <v>43214</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G77" s="2">
+        <v>56</v>
+      </c>
+      <c r="H77" s="2">
+        <v>50</v>
+      </c>
+      <c r="I77" s="2">
+        <f>G77-H77</f>
+        <v>6</v>
+      </c>
+      <c r="J77">
+        <f>I77-K77-L77</f>
+        <v>6</v>
+      </c>
+      <c r="N77" s="2">
+        <v>7</v>
+      </c>
+      <c r="O77" s="2">
+        <f>N77-P77</f>
+        <v>7</v>
+      </c>
+      <c r="Q77" s="2"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78" s="10">
+        <v>76</v>
+      </c>
+      <c r="B78" s="8">
+        <v>43215</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="2">
+        <v>49</v>
+      </c>
+      <c r="H78" s="2">
+        <v>43</v>
+      </c>
+      <c r="I78" s="2">
+        <f>G78-H78</f>
+        <v>6</v>
+      </c>
+      <c r="J78">
+        <f>I78-K78-L78</f>
+        <v>6</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78" s="2">
+        <v>5</v>
+      </c>
+      <c r="O78" s="2">
+        <f>N78-P78</f>
+        <v>5</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="8">
+        <v>43215</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G79" s="2">
+        <v>20</v>
+      </c>
+      <c r="H79" s="2">
+        <v>15</v>
+      </c>
+      <c r="I79" s="2">
+        <f>G79-H79</f>
+        <v>5</v>
+      </c>
+      <c r="J79">
+        <f>I79-K79-L79</f>
+        <v>5</v>
+      </c>
+      <c r="N79" s="2">
+        <v>7</v>
+      </c>
+      <c r="O79" s="2">
+        <f>N79-P79</f>
+        <v>7</v>
+      </c>
+      <c r="Q79" s="2"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80" s="10">
+        <v>78</v>
+      </c>
+      <c r="B80" s="8">
+        <v>43227</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G80" s="2">
+        <v>17</v>
+      </c>
+      <c r="H80" s="2">
+        <v>12</v>
+      </c>
+      <c r="I80" s="2">
+        <f>G80-H80</f>
+        <v>5</v>
+      </c>
+      <c r="J80">
+        <f>I80-K80-L80</f>
+        <v>5</v>
+      </c>
+      <c r="N80" s="2">
+        <v>7</v>
+      </c>
+      <c r="O80" s="2">
+        <f>N80-P80</f>
+        <v>7</v>
+      </c>
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="8">
+        <v>43227</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G81" s="2">
+        <v>22</v>
+      </c>
+      <c r="H81" s="2">
+        <v>17</v>
+      </c>
+      <c r="I81" s="2">
+        <f>G81-H81</f>
+        <v>5</v>
+      </c>
+      <c r="J81">
+        <f>I81-K81-L81</f>
+        <v>5</v>
+      </c>
+      <c r="N81" s="2">
+        <v>7</v>
+      </c>
+      <c r="O81" s="2">
+        <f>N81-P81</f>
+        <v>7</v>
+      </c>
+      <c r="Q81" s="2"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82" s="10">
+        <v>80</v>
+      </c>
+      <c r="B82" s="8">
+        <v>43227</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G82" s="2">
+        <v>35</v>
+      </c>
+      <c r="H82" s="2">
+        <v>30</v>
+      </c>
+      <c r="I82" s="2">
+        <f>G82-H82</f>
+        <v>5</v>
+      </c>
+      <c r="J82">
+        <f>I82-K82-L82</f>
+        <v>5</v>
+      </c>
+      <c r="N82" s="2">
+        <v>7</v>
+      </c>
+      <c r="O82" s="2">
+        <f>N82-P82</f>
+        <v>7</v>
+      </c>
+      <c r="Q82" s="2"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="8">
+        <v>43231</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2">
+        <v>15</v>
+      </c>
+      <c r="H83" s="2">
+        <v>12</v>
+      </c>
+      <c r="I83" s="2">
+        <f>G83-H83</f>
+        <v>3</v>
+      </c>
+      <c r="J83">
+        <f>I83-K83-L83</f>
+        <v>3</v>
+      </c>
+      <c r="N83" s="2">
+        <v>6</v>
+      </c>
+      <c r="O83" s="2">
+        <f>N83-P83</f>
+        <v>6</v>
+      </c>
+      <c r="Q83" s="2"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84" s="10">
+        <v>82</v>
+      </c>
+      <c r="B84" s="8">
+        <v>43231</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G84" s="2">
+        <v>12</v>
+      </c>
+      <c r="H84" s="2">
+        <v>7</v>
+      </c>
+      <c r="I84" s="2">
+        <f>G84-H84</f>
+        <v>5</v>
+      </c>
+      <c r="J84">
+        <f>I84-K84-L84</f>
+        <v>5</v>
+      </c>
+      <c r="N84" s="2">
+        <v>8</v>
+      </c>
+      <c r="O84" s="2">
+        <f>N84-P84</f>
+        <v>8</v>
+      </c>
+      <c r="Q84" s="2"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="8">
+        <v>43238</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2">
+        <v>12</v>
+      </c>
+      <c r="H85" s="2">
+        <v>6</v>
+      </c>
+      <c r="I85" s="2">
+        <f>G85-H85</f>
+        <v>6</v>
+      </c>
+      <c r="J85">
+        <f>I85-K85-L85</f>
+        <v>6</v>
+      </c>
+      <c r="N85" s="2">
+        <v>5</v>
+      </c>
+      <c r="O85" s="2">
+        <f>N85-P85</f>
+        <v>5</v>
+      </c>
+      <c r="Q85" s="2"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86" s="10">
+        <v>84</v>
+      </c>
+      <c r="B86" s="8">
+        <v>43240</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G86" s="2">
+        <v>56</v>
+      </c>
+      <c r="H86" s="2">
+        <v>50</v>
+      </c>
+      <c r="I86" s="2">
+        <f>G86-H86</f>
+        <v>6</v>
+      </c>
+      <c r="J86">
+        <f>I86-K86-L86</f>
+        <v>6</v>
+      </c>
+      <c r="N86" s="2">
+        <v>8</v>
+      </c>
+      <c r="O86" s="2">
+        <f>N86-P86</f>
+        <v>8</v>
+      </c>
+      <c r="Q86" s="2"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="8">
+        <v>43241</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" s="2">
+        <v>22</v>
+      </c>
+      <c r="H87" s="2">
+        <v>17</v>
+      </c>
+      <c r="I87" s="2">
+        <f>G87-H87</f>
+        <v>5</v>
+      </c>
+      <c r="J87">
+        <f>I87-K87-L87</f>
+        <v>5</v>
+      </c>
+      <c r="N87" s="2">
+        <v>6</v>
+      </c>
+      <c r="O87" s="2">
+        <f>N87-P87</f>
+        <v>6</v>
+      </c>
+      <c r="Q87" s="2"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A88" s="10">
+        <v>86</v>
+      </c>
+      <c r="B88" s="8">
+        <v>43251</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G88" s="2">
+        <v>10</v>
+      </c>
+      <c r="H88" s="2">
+        <v>7</v>
+      </c>
+      <c r="I88" s="2">
+        <f>G88-H88</f>
+        <v>3</v>
+      </c>
+      <c r="J88">
+        <f>I88-K88-L88</f>
+        <v>3</v>
+      </c>
+      <c r="N88" s="2">
+        <v>6</v>
+      </c>
+      <c r="O88" s="2">
+        <f>N88-P88</f>
+        <v>6</v>
+      </c>
+      <c r="Q88" s="2"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="8">
+        <v>43256</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="2">
+        <v>19</v>
+      </c>
+      <c r="H89" s="2">
+        <v>16</v>
+      </c>
+      <c r="I89" s="2">
+        <f>G89-H89</f>
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <f>I89-K89-L89</f>
+        <v>3</v>
+      </c>
+      <c r="N89" s="2">
+        <v>4</v>
+      </c>
+      <c r="O89" s="2">
+        <f>N89-P89</f>
+        <v>4</v>
+      </c>
+      <c r="Q89" s="2"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90" s="10">
+        <v>88</v>
+      </c>
+      <c r="B90" s="8">
+        <v>43256</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="2">
+        <v>25</v>
+      </c>
+      <c r="H90" s="2">
+        <v>19</v>
+      </c>
+      <c r="I90" s="2">
+        <f>G90-H90</f>
+        <v>6</v>
+      </c>
+      <c r="J90">
+        <f>I90-K90-L90</f>
+        <v>6</v>
+      </c>
+      <c r="N90" s="2">
+        <v>5</v>
+      </c>
+      <c r="O90" s="2">
+        <f>N90-P90</f>
+        <v>5</v>
+      </c>
+      <c r="Q90" s="2"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="8">
+        <v>43259</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G91" s="2">
+        <v>14</v>
+      </c>
+      <c r="H91" s="2">
+        <v>10</v>
+      </c>
+      <c r="I91" s="2">
+        <f>G91-H91</f>
+        <v>4</v>
+      </c>
+      <c r="J91">
+        <f>I91-K91-L91</f>
+        <v>4</v>
+      </c>
+      <c r="N91" s="2">
+        <v>7</v>
+      </c>
+      <c r="O91" s="2">
+        <f>N91-P91</f>
+        <v>7</v>
+      </c>
+      <c r="Q91" s="2"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92" s="10">
+        <v>90</v>
+      </c>
+      <c r="B92" s="8">
+        <v>43259</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" s="2">
+        <v>17</v>
+      </c>
+      <c r="H92" s="2">
+        <v>13</v>
+      </c>
+      <c r="I92" s="2">
+        <f>G92-H92</f>
+        <v>4</v>
+      </c>
+      <c r="J92">
+        <f>I92-K92-L92</f>
+        <v>4</v>
+      </c>
+      <c r="N92" s="2">
+        <v>6</v>
+      </c>
+      <c r="O92" s="2">
+        <f>N92-P92</f>
+        <v>6</v>
+      </c>
+      <c r="Q92" s="2"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="8">
+        <v>43260</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G93" s="2">
+        <v>19</v>
+      </c>
+      <c r="H93" s="2">
+        <v>14</v>
+      </c>
+      <c r="I93" s="2">
+        <f>G93-H93</f>
+        <v>5</v>
+      </c>
+      <c r="J93">
+        <f>I93-K93-L93</f>
+        <v>5</v>
+      </c>
+      <c r="N93" s="2">
+        <v>7</v>
+      </c>
+      <c r="O93" s="2">
+        <f>N93-P93</f>
+        <v>7</v>
+      </c>
+      <c r="Q93" s="2"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94" s="10">
+        <v>92</v>
+      </c>
+      <c r="B94" s="8">
+        <v>43261</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G94" s="2">
+        <v>16</v>
+      </c>
+      <c r="H94" s="2">
+        <v>13</v>
+      </c>
+      <c r="I94" s="2">
+        <f>G94-H94</f>
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <f>I94-K94-L94</f>
+        <v>3</v>
+      </c>
+      <c r="N94" s="2">
+        <v>7</v>
+      </c>
+      <c r="O94" s="2">
+        <f>N94-P94</f>
+        <v>7</v>
+      </c>
+      <c r="Q94" s="2"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="8">
+        <v>43265</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G95" s="2">
+        <v>35</v>
+      </c>
+      <c r="H95" s="2">
+        <v>30</v>
+      </c>
+      <c r="I95" s="2">
+        <f>G95-H95</f>
+        <v>5</v>
+      </c>
+      <c r="J95">
+        <f>I95-K95-L95</f>
+        <v>5</v>
+      </c>
+      <c r="N95" s="2">
+        <v>5</v>
+      </c>
+      <c r="O95" s="2">
+        <f>N95-P95</f>
+        <v>5</v>
+      </c>
+      <c r="Q95" s="2"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A96" s="10">
+        <v>94</v>
+      </c>
+      <c r="B96" s="8">
+        <v>43273</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" s="2">
+        <v>46</v>
+      </c>
+      <c r="H96" s="2">
+        <v>40</v>
+      </c>
+      <c r="I96" s="2">
+        <f>G96-H96</f>
+        <v>6</v>
+      </c>
+      <c r="J96">
+        <f>I96-K96-L96</f>
+        <v>6</v>
+      </c>
+      <c r="N96" s="2">
+        <v>4</v>
+      </c>
+      <c r="O96" s="2">
+        <f>N96-P96</f>
+        <v>4</v>
+      </c>
+      <c r="Q96" s="2"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="8">
+        <v>43277</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G97" s="2">
+        <v>37</v>
+      </c>
+      <c r="H97" s="2">
+        <v>32</v>
+      </c>
+      <c r="I97" s="2">
+        <f>G97-H97</f>
+        <v>5</v>
+      </c>
+      <c r="J97">
+        <f>I97-K97-L97</f>
+        <v>5</v>
+      </c>
+      <c r="N97" s="2">
+        <v>7</v>
+      </c>
+      <c r="O97" s="2">
+        <f>N97-P97</f>
+        <v>7</v>
+      </c>
+      <c r="Q97" s="2"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A98" s="10">
+        <v>96</v>
+      </c>
+      <c r="B98" s="8">
+        <v>43278</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" s="2">
+        <v>7</v>
+      </c>
+      <c r="H98" s="2">
+        <v>2</v>
+      </c>
+      <c r="I98" s="2">
+        <f>G98-H98</f>
+        <v>5</v>
+      </c>
+      <c r="J98">
+        <f>I98-K98-L98</f>
+        <v>5</v>
+      </c>
+      <c r="N98" s="2">
+        <v>7</v>
+      </c>
+      <c r="O98" s="2">
+        <f>N98-P98</f>
+        <v>7</v>
+      </c>
+      <c r="Q98" s="2"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="8">
+        <v>43278</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G99" s="2">
+        <v>45</v>
+      </c>
+      <c r="H99" s="2">
+        <v>40</v>
+      </c>
+      <c r="I99" s="2">
+        <f>G99-H99</f>
+        <v>5</v>
+      </c>
+      <c r="J99">
+        <f>I99-K99-L99</f>
+        <v>5</v>
+      </c>
+      <c r="N99" s="2">
+        <v>9</v>
+      </c>
+      <c r="O99" s="2">
+        <f>N99-P99</f>
+        <v>9</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="R99" s="8"/>
+      <c r="S99" s="8"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A100" s="10">
+        <v>98</v>
+      </c>
+      <c r="B100" s="8">
+        <v>43278</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G100" s="2">
+        <v>21</v>
+      </c>
+      <c r="H100" s="2">
+        <v>18</v>
+      </c>
+      <c r="I100" s="2">
+        <f>G100-H100</f>
+        <v>3</v>
+      </c>
+      <c r="J100">
+        <f>I100-K100-L100</f>
+        <v>3</v>
+      </c>
+      <c r="N100" s="2">
+        <v>7</v>
+      </c>
+      <c r="O100" s="2">
+        <f>N100-P100</f>
+        <v>7</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="8"/>
+      <c r="S100" s="8"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="8">
+        <v>43278</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="2">
+        <v>19</v>
+      </c>
+      <c r="H101" s="2">
+        <v>14</v>
+      </c>
+      <c r="I101" s="2">
+        <f>G101-H101</f>
+        <v>5</v>
+      </c>
+      <c r="J101">
+        <f>I101-K101-L101</f>
+        <v>5</v>
+      </c>
+      <c r="N101" s="2">
+        <v>4</v>
+      </c>
+      <c r="O101" s="2">
+        <f>N101-P101</f>
+        <v>4</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="8"/>
+      <c r="S101" s="8"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A102" s="10">
+        <v>100</v>
+      </c>
+      <c r="B102" s="8">
+        <v>43278</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" s="2">
+        <v>17</v>
+      </c>
+      <c r="H102" s="2">
+        <v>13</v>
+      </c>
+      <c r="I102" s="2">
+        <f>G102-H102</f>
+        <v>4</v>
+      </c>
+      <c r="J102">
+        <f>I102-K102-L102</f>
+        <v>4</v>
+      </c>
+      <c r="N102" s="2">
+        <v>4</v>
+      </c>
+      <c r="O102" s="2">
+        <f>N102-P102</f>
+        <v>4</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="8"/>
+      <c r="S102" s="8"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="8">
+        <v>43281</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" s="2">
+        <v>35</v>
+      </c>
+      <c r="H103" s="2">
+        <v>32</v>
+      </c>
+      <c r="I103" s="2">
+        <f>G103-H103</f>
+        <v>3</v>
+      </c>
+      <c r="J103">
+        <f>I103-K103-L103</f>
+        <v>3</v>
+      </c>
+      <c r="N103" s="2">
+        <v>5</v>
+      </c>
+      <c r="O103" s="2">
+        <f>N103-P103</f>
+        <v>5</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="8"/>
+      <c r="S103" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J5:J103 J2:J3">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/婚舰列表.xlsx
+++ b/婚舰列表.xlsx
@@ -11,6 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.0" hidden="1">Sheet1!$B$3:$B$103</definedName>
+    <definedName name="_xlchart.1" hidden="1">Sheet1!$B$3:$B$200</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="183">
   <si>
     <t>舰 ID</t>
   </si>
@@ -583,6 +584,49 @@
   <si>
     <t>朝霜改</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香取改</t>
+  </si>
+  <si>
+    <t>練習巡洋艦</t>
+  </si>
+  <si>
+    <t>鹿島改</t>
+  </si>
+  <si>
+    <t>朝霜改</t>
+  </si>
+  <si>
+    <t>朝潮改二</t>
+  </si>
+  <si>
+    <t>羽黒改二</t>
+  </si>
+  <si>
+    <t>羽黑改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足柄改二</t>
+  </si>
+  <si>
+    <t>足柄改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞穂改</t>
+  </si>
+  <si>
+    <t>瑞穗改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿岛改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水上機母艦</t>
   </si>
 </sst>
 </file>
@@ -590,7 +634,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -654,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -667,16 +711,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -699,7 +746,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.0</cx:f>
+        <cx:f>_xlchart.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -728,11 +775,11 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{C44DCF97-67C1-427D-82B1-FA4F03549E9D}">
+        <cx:series layoutId="clusteredColumn" uniqueId="{7C107059-2CBA-4D33-9C8D-E4646F663ACD}">
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r">
-              <cx:binSize val="29.851851851851851"/>
+              <cx:binSize val="30"/>
             </cx:binning>
           </cx:layoutPr>
         </cx:series>
@@ -1241,15 +1288,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
@@ -1572,16 +1619,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="11"/>
+    <col min="3" max="3" width="9" style="10"/>
     <col min="4" max="5" width="11.25" customWidth="1"/>
     <col min="8" max="8" width="11.875" customWidth="1"/>
     <col min="11" max="11" width="6.625" customWidth="1"/>
@@ -1594,25 +1641,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1621,7 +1668,7 @@
       <c r="B2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1673,7 +1720,7 @@
       </c>
       <c r="U2" s="6">
         <f>COUNTA($C:$C)-1</f>
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>164</v>
@@ -1686,7 +1733,7 @@
       <c r="B3" s="5">
         <v>42475</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1705,11 +1752,11 @@
         <v>20</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I34" si="0">G3-H3</f>
+        <f>G3-H3</f>
         <v>8</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J34" si="1">I3-K3-L3</f>
+        <f>I3-K3-L3</f>
         <v>4</v>
       </c>
       <c r="L3">
@@ -1722,7 +1769,7 @@
         <v>6</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O34" si="2">N3-P3</f>
+        <f>N3-P3</f>
         <v>5</v>
       </c>
       <c r="P3">
@@ -1749,7 +1796,7 @@
       <c r="B4" s="5">
         <v>42495</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>882</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1768,11 +1815,11 @@
         <v>20</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
+        <f>G4-H4</f>
         <v>30</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f>I4-K4-L4</f>
         <v>6</v>
       </c>
       <c r="K4">
@@ -1786,7 +1833,7 @@
         <v>6</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="2"/>
+        <f>N4-P4</f>
         <v>6</v>
       </c>
       <c r="P4"/>
@@ -1806,7 +1853,7 @@
       <c r="B5" s="5">
         <v>42512</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>1456</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1825,11 +1872,11 @@
         <v>40</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="0"/>
+        <f>G5-H5</f>
         <v>6</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f>I5-K5-L5</f>
         <v>6</v>
       </c>
       <c r="K5"/>
@@ -1839,7 +1886,7 @@
         <v>8</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="2"/>
+        <f>N5-P5</f>
         <v>8</v>
       </c>
       <c r="P5"/>
@@ -1859,7 +1906,7 @@
       <c r="B6" s="5">
         <v>42545</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>322</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1878,18 +1925,18 @@
         <v>50</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="0"/>
+        <f>G6-H6</f>
         <v>3</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f>I6-K6-L6</f>
         <v>3</v>
       </c>
       <c r="N6" s="1">
         <v>4</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="2"/>
+        <f>N6-P6</f>
         <v>4</v>
       </c>
       <c r="Q6" s="1"/>
@@ -1901,7 +1948,7 @@
       <c r="B7" s="5">
         <v>42586</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>2676</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1920,18 +1967,18 @@
         <v>20</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
+        <f>G7-H7</f>
         <v>3</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f>I7-K7-L7</f>
         <v>3</v>
       </c>
       <c r="N7" s="1">
         <v>8</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="2"/>
+        <f>N7-P7</f>
         <v>8</v>
       </c>
       <c r="Q7" s="1" t="s">
@@ -1945,7 +1992,7 @@
       <c r="B8" s="5">
         <v>42587</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>288</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1964,11 +2011,11 @@
         <v>37</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
+        <f>G8-H8</f>
         <v>3</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f>I8-K8-L8</f>
         <v>3</v>
       </c>
       <c r="M8">
@@ -1978,7 +2025,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="2"/>
+        <f>N8-P8</f>
         <v>5</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -1993,7 +2040,7 @@
       <c r="B9" s="5">
         <v>42600</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>165</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2012,18 +2059,18 @@
         <v>14</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="0"/>
+        <f>G9-H9</f>
         <v>6</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f>I9-K9-L9</f>
         <v>6</v>
       </c>
       <c r="N9" s="1">
         <v>7</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="2"/>
+        <f>N9-P9</f>
         <v>7</v>
       </c>
       <c r="Q9" s="1" t="s">
@@ -2037,7 +2084,7 @@
       <c r="B10" s="5">
         <v>42629</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>2908</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2056,18 +2103,18 @@
         <v>13</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
+        <f>G10-H10</f>
         <v>6</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f>I10-K10-L10</f>
         <v>6</v>
       </c>
       <c r="N10" s="1">
         <v>4</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="2"/>
+        <f>N10-P10</f>
         <v>4</v>
       </c>
       <c r="Q10" s="1"/>
@@ -2079,7 +2126,7 @@
       <c r="B11" s="5">
         <v>42630</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>5329</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2098,18 +2145,18 @@
         <v>50</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
+        <f>G11-H11</f>
         <v>3</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f>I11-K11-L11</f>
         <v>3</v>
       </c>
       <c r="N11" s="1">
         <v>8</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="2"/>
+        <f>N11-P11</f>
         <v>8</v>
       </c>
       <c r="Q11" s="1" t="s">
@@ -2123,7 +2170,7 @@
       <c r="B12" s="5">
         <v>42698</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>114</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2142,11 +2189,11 @@
         <v>30</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="0"/>
+        <f>G12-H12</f>
         <v>13</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f>I12-K12-L12</f>
         <v>5</v>
       </c>
       <c r="K12">
@@ -2156,7 +2203,7 @@
         <v>6</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="2"/>
+        <f>N12-P12</f>
         <v>6</v>
       </c>
       <c r="Q12" s="1"/>
@@ -2168,7 +2215,7 @@
       <c r="B13" s="5">
         <v>42722</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>397</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2187,18 +2234,18 @@
         <v>41</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="0"/>
+        <f>G13-H13</f>
         <v>3</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f>I13-K13-L13</f>
         <v>3</v>
       </c>
       <c r="N13" s="1">
         <v>7</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="2"/>
+        <f>N13-P13</f>
         <v>7</v>
       </c>
       <c r="Q13" s="1"/>
@@ -2210,7 +2257,7 @@
       <c r="B14" s="5">
         <v>42739</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>2211</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2229,18 +2276,18 @@
         <v>25</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="0"/>
+        <f>G14-H14</f>
         <v>6</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f>I14-K14-L14</f>
         <v>6</v>
       </c>
       <c r="N14" s="1">
         <v>4</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="2"/>
+        <f>N14-P14</f>
         <v>4</v>
       </c>
       <c r="Q14" s="1"/>
@@ -2252,7 +2299,7 @@
       <c r="B15" s="5">
         <v>42767</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>12903</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2271,18 +2318,18 @@
         <v>34</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="0"/>
+        <f>G15-H15</f>
         <v>4</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f>I15-K15-L15</f>
         <v>4</v>
       </c>
       <c r="N15" s="1">
         <v>4</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="2"/>
+        <f>N15-P15</f>
         <v>4</v>
       </c>
       <c r="Q15" s="1"/>
@@ -2294,7 +2341,7 @@
       <c r="B16" s="5">
         <v>42776</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2313,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="0"/>
+        <f>G16-H16</f>
         <v>4</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f>I16-K16-L16</f>
         <v>4</v>
       </c>
       <c r="N16" s="1">
         <v>5</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="2"/>
+        <f>N16-P16</f>
         <v>5</v>
       </c>
       <c r="Q16" s="1"/>
@@ -2336,7 +2383,7 @@
       <c r="B17" s="5">
         <v>42781</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>906</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2355,18 +2402,18 @@
         <v>10</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="0"/>
+        <f>G17-H17</f>
         <v>6</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f>I17-K17-L17</f>
         <v>6</v>
       </c>
       <c r="N17" s="1">
         <v>4</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="2"/>
+        <f>N17-P17</f>
         <v>4</v>
       </c>
       <c r="Q17" s="1"/>
@@ -2378,7 +2425,7 @@
       <c r="B18" s="5">
         <v>42797</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>379</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2397,18 +2444,18 @@
         <v>15</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="0"/>
+        <f>G18-H18</f>
         <v>4</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f>I18-K18-L18</f>
         <v>4</v>
       </c>
       <c r="N18" s="1">
         <v>8</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="2"/>
+        <f>N18-P18</f>
         <v>8</v>
       </c>
       <c r="Q18" s="1" t="s">
@@ -2422,7 +2469,7 @@
       <c r="B19" s="5">
         <v>42798</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>973</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2441,18 +2488,18 @@
         <v>13</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="0"/>
+        <f>G19-H19</f>
         <v>6</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f>I19-K19-L19</f>
         <v>6</v>
       </c>
       <c r="N19" s="1">
         <v>8</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="2"/>
+        <f>N19-P19</f>
         <v>8</v>
       </c>
       <c r="Q19" s="1"/>
@@ -2464,7 +2511,7 @@
       <c r="B20" s="5">
         <v>42799</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>195</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2483,18 +2530,18 @@
         <v>41</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="0"/>
+        <f>G20-H20</f>
         <v>6</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f>I20-K20-L20</f>
         <v>6</v>
       </c>
       <c r="N20" s="1">
         <v>8</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="2"/>
+        <f>N20-P20</f>
         <v>8</v>
       </c>
       <c r="Q20" s="1" t="s">
@@ -2508,7 +2555,7 @@
       <c r="B21" s="5">
         <v>42802</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>447</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2527,18 +2574,18 @@
         <v>14</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="0"/>
+        <f>G21-H21</f>
         <v>5</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f>I21-K21-L21</f>
         <v>5</v>
       </c>
       <c r="N21" s="1">
         <v>8</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="2"/>
+        <f>N21-P21</f>
         <v>8</v>
       </c>
       <c r="Q21" s="1"/>
@@ -2550,7 +2597,7 @@
       <c r="B22" s="5">
         <v>42809</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>19860</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2569,18 +2616,18 @@
         <v>4</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="0"/>
+        <f>G22-H22</f>
         <v>4</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f>I22-K22-L22</f>
         <v>4</v>
       </c>
       <c r="N22" s="1">
         <v>8</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="2"/>
+        <f>N22-P22</f>
         <v>8</v>
       </c>
       <c r="Q22" s="1"/>
@@ -2592,7 +2639,7 @@
       <c r="B23" s="5">
         <v>42812</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2611,18 +2658,18 @@
         <v>20</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="0"/>
+        <f>G23-H23</f>
         <v>6</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f>I23-K23-L23</f>
         <v>6</v>
       </c>
       <c r="N23" s="1">
         <v>5</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="2"/>
+        <f>N23-P23</f>
         <v>5</v>
       </c>
       <c r="Q23" s="1" t="s">
@@ -2636,7 +2683,7 @@
       <c r="B24" s="5">
         <v>42814</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>7167</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2655,18 +2702,18 @@
         <v>22</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="0"/>
+        <f>G24-H24</f>
         <v>5</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f>I24-K24-L24</f>
         <v>5</v>
       </c>
       <c r="N24" s="1">
         <v>3</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="2"/>
+        <f>N24-P24</f>
         <v>3</v>
       </c>
       <c r="Q24" s="1" t="s">
@@ -2680,7 +2727,7 @@
       <c r="B25" s="5">
         <v>42828</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>12833</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2699,18 +2746,18 @@
         <v>20</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="0"/>
+        <f>G25-H25</f>
         <v>3</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f>I25-K25-L25</f>
         <v>3</v>
       </c>
       <c r="N25" s="1">
         <v>4</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="2"/>
+        <f>N25-P25</f>
         <v>4</v>
       </c>
       <c r="Q25" s="1"/>
@@ -2722,7 +2769,7 @@
       <c r="B26" s="5">
         <v>42834</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>14862</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2741,18 +2788,18 @@
         <v>16</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="0"/>
+        <f>G26-H26</f>
         <v>3</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f>I26-K26-L26</f>
         <v>3</v>
       </c>
       <c r="N26" s="1">
         <v>4</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="2"/>
+        <f>N26-P26</f>
         <v>4</v>
       </c>
       <c r="Q26" s="1"/>
@@ -2764,7 +2811,7 @@
       <c r="B27" s="5">
         <v>42860</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>916</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2783,18 +2830,18 @@
         <v>13</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="0"/>
+        <f>G27-H27</f>
         <v>3</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f>I27-K27-L27</f>
         <v>3</v>
       </c>
       <c r="N27" s="1">
         <v>6</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="2"/>
+        <f>N27-P27</f>
         <v>6</v>
       </c>
       <c r="Q27" s="1"/>
@@ -2806,7 +2853,7 @@
       <c r="B28" s="5">
         <v>42879</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2825,18 +2872,18 @@
         <v>13</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="0"/>
+        <f>G28-H28</f>
         <v>6</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f>I28-K28-L28</f>
         <v>6</v>
       </c>
       <c r="N28" s="1">
         <v>7</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="2"/>
+        <f>N28-P28</f>
         <v>7</v>
       </c>
       <c r="Q28" s="1"/>
@@ -2848,7 +2895,7 @@
       <c r="B29" s="5">
         <v>42879</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2867,18 +2914,18 @@
         <v>14</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="0"/>
+        <f>G29-H29</f>
         <v>4</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f>I29-K29-L29</f>
         <v>4</v>
       </c>
       <c r="N29" s="1">
         <v>6</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="2"/>
+        <f>N29-P29</f>
         <v>6</v>
       </c>
       <c r="Q29" s="1"/>
@@ -2890,7 +2937,7 @@
       <c r="B30" s="5">
         <v>42880</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>1041</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2909,18 +2956,18 @@
         <v>17</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="0"/>
+        <f>G30-H30</f>
         <v>6</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f>I30-K30-L30</f>
         <v>6</v>
       </c>
       <c r="N30" s="1">
         <v>5</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="2"/>
+        <f>N30-P30</f>
         <v>5</v>
       </c>
       <c r="Q30" s="1" t="s">
@@ -2934,7 +2981,7 @@
       <c r="B31" s="5">
         <v>42880</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>2778</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2953,18 +3000,18 @@
         <v>6</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="0"/>
+        <f>G31-H31</f>
         <v>6</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f>I31-K31-L31</f>
         <v>6</v>
       </c>
       <c r="N31" s="1">
         <v>8</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="2"/>
+        <f>N31-P31</f>
         <v>8</v>
       </c>
       <c r="Q31" s="1"/>
@@ -2976,7 +3023,7 @@
       <c r="B32" s="5">
         <v>42882</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2995,11 +3042,11 @@
         <v>50</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="0"/>
+        <f>G32-H32</f>
         <v>4</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f>I32-K32-L32</f>
         <v>4</v>
       </c>
       <c r="M32">
@@ -3009,7 +3056,7 @@
         <v>5</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" si="2"/>
+        <f>N32-P32</f>
         <v>5</v>
       </c>
       <c r="Q32" s="1" t="s">
@@ -3023,7 +3070,7 @@
       <c r="B33" s="5">
         <v>42883</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>22757</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -3042,18 +3089,18 @@
         <v>14</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="0"/>
+        <f>G33-H33</f>
         <v>4</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f>I33-K33-L33</f>
         <v>4</v>
       </c>
       <c r="N33" s="1">
         <v>6</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="2"/>
+        <f>N33-P33</f>
         <v>6</v>
       </c>
       <c r="Q33" s="1" t="s">
@@ -3067,7 +3114,7 @@
       <c r="B34" s="5">
         <v>42883</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>1418</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -3086,18 +3133,18 @@
         <v>12</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="0"/>
+        <f>G34-H34</f>
         <v>3</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f>I34-K34-L34</f>
         <v>3</v>
       </c>
       <c r="N34" s="1">
         <v>8</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="2"/>
+        <f>N34-P34</f>
         <v>8</v>
       </c>
       <c r="Q34" s="1"/>
@@ -3109,7 +3156,7 @@
       <c r="B35" s="5">
         <v>42884</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>265</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -3128,18 +3175,18 @@
         <v>13</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" ref="I35:I66" si="3">G35-H35</f>
+        <f>G35-H35</f>
         <v>4</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35:J66" si="4">I35-K35-L35</f>
+        <f>I35-K35-L35</f>
         <v>4</v>
       </c>
       <c r="N35" s="1">
         <v>7</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" ref="O35:O66" si="5">N35-P35</f>
+        <f>N35-P35</f>
         <v>7</v>
       </c>
       <c r="Q35" s="1"/>
@@ -3151,7 +3198,7 @@
       <c r="B36" s="5">
         <v>42884</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>91</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3170,18 +3217,18 @@
         <v>13</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="3"/>
+        <f>G36-H36</f>
         <v>3</v>
       </c>
       <c r="J36">
-        <f t="shared" si="4"/>
+        <f>I36-K36-L36</f>
         <v>3</v>
       </c>
       <c r="N36" s="1">
         <v>7</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="5"/>
+        <f>N36-P36</f>
         <v>7</v>
       </c>
       <c r="Q36" s="1"/>
@@ -3193,7 +3240,7 @@
       <c r="B37" s="5">
         <v>42885</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>6649</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -3212,11 +3259,11 @@
         <v>40</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="3"/>
+        <f>G37-H37</f>
         <v>11</v>
       </c>
       <c r="J37">
-        <f t="shared" si="4"/>
+        <f>I37-K37-L37</f>
         <v>3</v>
       </c>
       <c r="K37">
@@ -3226,7 +3273,7 @@
         <v>7</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="5"/>
+        <f>N37-P37</f>
         <v>7</v>
       </c>
       <c r="Q37" s="1" t="s">
@@ -3240,7 +3287,7 @@
       <c r="B38" s="5">
         <v>42886</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>289</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3259,18 +3306,18 @@
         <v>13</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="3"/>
+        <f>G38-H38</f>
         <v>3</v>
       </c>
       <c r="J38">
-        <f t="shared" si="4"/>
+        <f>I38-K38-L38</f>
         <v>3</v>
       </c>
       <c r="N38" s="1">
         <v>8</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="5"/>
+        <f>N38-P38</f>
         <v>8</v>
       </c>
       <c r="Q38" s="1" t="s">
@@ -3284,7 +3331,7 @@
       <c r="B39" s="5">
         <v>42886</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>176</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3303,18 +3350,18 @@
         <v>14</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="3"/>
+        <f>G39-H39</f>
         <v>5</v>
       </c>
       <c r="J39">
-        <f t="shared" si="4"/>
+        <f>I39-K39-L39</f>
         <v>5</v>
       </c>
       <c r="N39" s="1">
         <v>8</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="5"/>
+        <f>N39-P39</f>
         <v>8</v>
       </c>
       <c r="Q39" s="1" t="s">
@@ -3328,7 +3375,7 @@
       <c r="B40" s="5">
         <v>42890</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>17459</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -3347,18 +3394,18 @@
         <v>40</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="3"/>
+        <f>G40-H40</f>
         <v>6</v>
       </c>
       <c r="J40">
-        <f t="shared" si="4"/>
+        <f>I40-K40-L40</f>
         <v>6</v>
       </c>
       <c r="N40" s="1">
         <v>8</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="5"/>
+        <f>N40-P40</f>
         <v>8</v>
       </c>
       <c r="Q40" s="1"/>
@@ -3370,7 +3417,7 @@
       <c r="B41" s="5">
         <v>42921</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>1498</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -3389,18 +3436,18 @@
         <v>12</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="3"/>
+        <f>G41-H41</f>
         <v>5</v>
       </c>
       <c r="J41">
-        <f t="shared" si="4"/>
+        <f>I41-K41-L41</f>
         <v>5</v>
       </c>
       <c r="N41" s="1">
         <v>6</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="5"/>
+        <f>N41-P41</f>
         <v>6</v>
       </c>
       <c r="Q41" s="1"/>
@@ -3412,7 +3459,7 @@
       <c r="B42" s="5">
         <v>42935</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>2639</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -3431,18 +3478,18 @@
         <v>30</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="3"/>
+        <f>G42-H42</f>
         <v>6</v>
       </c>
       <c r="J42">
-        <f t="shared" si="4"/>
+        <f>I42-K42-L42</f>
         <v>6</v>
       </c>
       <c r="N42" s="1">
         <v>6</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="5"/>
+        <f>N42-P42</f>
         <v>6</v>
       </c>
       <c r="Q42" s="1" t="s">
@@ -3456,7 +3503,7 @@
       <c r="B43" s="5">
         <v>42979</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>2777</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -3475,18 +3522,18 @@
         <v>8</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="3"/>
+        <f>G43-H43</f>
         <v>4</v>
       </c>
       <c r="J43">
-        <f t="shared" si="4"/>
+        <f>I43-K43-L43</f>
         <v>4</v>
       </c>
       <c r="N43" s="1">
         <v>6</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="5"/>
+        <f>N43-P43</f>
         <v>6</v>
       </c>
       <c r="Q43" s="1" t="s">
@@ -3500,7 +3547,7 @@
       <c r="B44" s="5">
         <v>42980</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>7339</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -3519,18 +3566,18 @@
         <v>30</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="3"/>
+        <f>G44-H44</f>
         <v>3</v>
       </c>
       <c r="J44">
-        <f t="shared" si="4"/>
+        <f>I44-K44-L44</f>
         <v>3</v>
       </c>
       <c r="N44" s="1">
         <v>6</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="5"/>
+        <f>N44-P44</f>
         <v>6</v>
       </c>
       <c r="Q44" s="1" t="s">
@@ -3544,7 +3591,7 @@
       <c r="B45" s="5">
         <v>42982</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>26092</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -3563,18 +3610,18 @@
         <v>13</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="3"/>
+        <f>G45-H45</f>
         <v>3</v>
       </c>
       <c r="J45">
-        <f t="shared" si="4"/>
+        <f>I45-K45-L45</f>
         <v>3</v>
       </c>
       <c r="N45" s="1">
         <v>8</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="5"/>
+        <f>N45-P45</f>
         <v>8</v>
       </c>
       <c r="Q45" s="1"/>
@@ -3586,7 +3633,7 @@
       <c r="B46" s="5">
         <v>42987</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>15139</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -3605,18 +3652,18 @@
         <v>70</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="3"/>
+        <f>G46-H46</f>
         <v>3</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
+        <f>I46-K46-L46</f>
         <v>3</v>
       </c>
       <c r="N46" s="1">
         <v>8</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="5"/>
+        <f>N46-P46</f>
         <v>8</v>
       </c>
       <c r="Q46" s="1"/>
@@ -3628,7 +3675,7 @@
       <c r="B47" s="5">
         <v>42988</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>67</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -3647,18 +3694,18 @@
         <v>12</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="3"/>
+        <f>G47-H47</f>
         <v>5</v>
       </c>
       <c r="J47">
-        <f t="shared" si="4"/>
+        <f>I47-K47-L47</f>
         <v>5</v>
       </c>
       <c r="N47" s="1">
         <v>8</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="5"/>
+        <f>N47-P47</f>
         <v>8</v>
       </c>
       <c r="Q47" s="1"/>
@@ -3670,7 +3717,7 @@
       <c r="B48" s="5">
         <v>42993</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>285</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -3689,18 +3736,18 @@
         <v>19</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="3"/>
+        <f>G48-H48</f>
         <v>6</v>
       </c>
       <c r="J48">
-        <f t="shared" si="4"/>
+        <f>I48-K48-L48</f>
         <v>6</v>
       </c>
       <c r="N48" s="1">
         <v>7</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="5"/>
+        <f>N48-P48</f>
         <v>7</v>
       </c>
       <c r="Q48" s="1"/>
@@ -3712,7 +3759,7 @@
       <c r="B49" s="5">
         <v>42993</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>25627</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -3731,18 +3778,18 @@
         <v>24</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="3"/>
+        <f>G49-H49</f>
         <v>3</v>
       </c>
       <c r="J49">
-        <f t="shared" si="4"/>
+        <f>I49-K49-L49</f>
         <v>3</v>
       </c>
       <c r="N49" s="1">
         <v>8</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="5"/>
+        <f>N49-P49</f>
         <v>8</v>
       </c>
       <c r="Q49" s="1"/>
@@ -3754,7 +3801,7 @@
       <c r="B50" s="5">
         <v>42996</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>9411</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -3773,18 +3820,18 @@
         <v>17</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="3"/>
+        <f>G50-H50</f>
         <v>4</v>
       </c>
       <c r="J50">
-        <f t="shared" si="4"/>
+        <f>I50-K50-L50</f>
         <v>4</v>
       </c>
       <c r="N50" s="1">
         <v>7</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="5"/>
+        <f>N50-P50</f>
         <v>7</v>
       </c>
       <c r="Q50" s="1"/>
@@ -3796,7 +3843,7 @@
       <c r="B51" s="5">
         <v>43004</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>53</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -3815,11 +3862,11 @@
         <v>40</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="3"/>
+        <f>G51-H51</f>
         <v>12</v>
       </c>
       <c r="J51">
-        <f t="shared" si="4"/>
+        <f>I51-K51-L51</f>
         <v>4</v>
       </c>
       <c r="K51">
@@ -3832,7 +3879,7 @@
         <v>5</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="5"/>
+        <f>N51-P51</f>
         <v>5</v>
       </c>
       <c r="Q51" s="1" t="s">
@@ -3846,7 +3893,7 @@
       <c r="B52" s="5">
         <v>43008</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>209</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -3865,18 +3912,18 @@
         <v>16</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="3"/>
+        <f>G52-H52</f>
         <v>6</v>
       </c>
       <c r="J52">
-        <f t="shared" si="4"/>
+        <f>I52-K52-L52</f>
         <v>6</v>
       </c>
       <c r="N52" s="1">
         <v>6</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="5"/>
+        <f>N52-P52</f>
         <v>6</v>
       </c>
       <c r="Q52" s="1" t="s">
@@ -3890,7 +3937,7 @@
       <c r="B53" s="5">
         <v>43010</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>13737</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -3909,18 +3956,18 @@
         <v>13</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="3"/>
+        <f>G53-H53</f>
         <v>3</v>
       </c>
       <c r="J53">
-        <f t="shared" si="4"/>
+        <f>I53-K53-L53</f>
         <v>3</v>
       </c>
       <c r="N53" s="1">
         <v>9</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="5"/>
+        <f>N53-P53</f>
         <v>9</v>
       </c>
       <c r="Q53" s="1" t="s">
@@ -3934,7 +3981,7 @@
       <c r="B54" s="5">
         <v>43034</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>19304</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -3953,18 +4000,18 @@
         <v>44</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="3"/>
+        <f>G54-H54</f>
         <v>5</v>
       </c>
       <c r="J54">
-        <f t="shared" si="4"/>
+        <f>I54-K54-L54</f>
         <v>5</v>
       </c>
       <c r="N54" s="1">
         <v>4</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="5"/>
+        <f>N54-P54</f>
         <v>4</v>
       </c>
       <c r="Q54" s="1"/>
@@ -3976,7 +4023,7 @@
       <c r="B55" s="5">
         <v>43035</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>3708</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -3995,18 +4042,18 @@
         <v>11</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="3"/>
+        <f>G55-H55</f>
         <v>4</v>
       </c>
       <c r="J55">
-        <f t="shared" si="4"/>
+        <f>I55-K55-L55</f>
         <v>4</v>
       </c>
       <c r="N55" s="1">
         <v>5</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="5"/>
+        <f>N55-P55</f>
         <v>5</v>
       </c>
       <c r="Q55" s="1" t="s">
@@ -4020,7 +4067,7 @@
       <c r="B56" s="5">
         <v>43042</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>1018</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -4039,18 +4086,18 @@
         <v>40</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="3"/>
+        <f>G56-H56</f>
         <v>6</v>
       </c>
       <c r="J56">
-        <f t="shared" si="4"/>
+        <f>I56-K56-L56</f>
         <v>6</v>
       </c>
       <c r="N56" s="1">
         <v>8</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="5"/>
+        <f>N56-P56</f>
         <v>8</v>
       </c>
       <c r="Q56" s="1" t="s">
@@ -4064,7 +4111,7 @@
       <c r="B57" s="5">
         <v>43045</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>409</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -4083,18 +4130,18 @@
         <v>30</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="3"/>
+        <f>G57-H57</f>
         <v>5</v>
       </c>
       <c r="J57">
-        <f t="shared" si="4"/>
+        <f>I57-K57-L57</f>
         <v>5</v>
       </c>
       <c r="N57" s="1">
         <v>8</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="5"/>
+        <f>N57-P57</f>
         <v>8</v>
       </c>
       <c r="Q57" s="1"/>
@@ -4106,7 +4153,7 @@
       <c r="B58" s="5">
         <v>43048</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>60</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -4125,18 +4172,18 @@
         <v>13</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="3"/>
+        <f>G58-H58</f>
         <v>5</v>
       </c>
       <c r="J58">
-        <f t="shared" si="4"/>
+        <f>I58-K58-L58</f>
         <v>5</v>
       </c>
       <c r="N58" s="1">
         <v>6</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="5"/>
+        <f>N58-P58</f>
         <v>6</v>
       </c>
       <c r="Q58" s="1"/>
@@ -4148,7 +4195,7 @@
       <c r="B59" s="5">
         <v>43049</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>177</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -4167,18 +4214,18 @@
         <v>10</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="3"/>
+        <f>G59-H59</f>
         <v>5</v>
       </c>
       <c r="J59">
-        <f t="shared" si="4"/>
+        <f>I59-K59-L59</f>
         <v>5</v>
       </c>
       <c r="N59" s="1">
         <v>7</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="5"/>
+        <f>N59-P59</f>
         <v>7</v>
       </c>
       <c r="Q59" s="1" t="s">
@@ -4192,7 +4239,7 @@
       <c r="B60" s="5">
         <v>43052</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>22</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -4211,18 +4258,18 @@
         <v>12</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="3"/>
+        <f>G60-H60</f>
         <v>6</v>
       </c>
       <c r="J60">
-        <f t="shared" si="4"/>
+        <f>I60-K60-L60</f>
         <v>6</v>
       </c>
       <c r="N60" s="1">
         <v>7</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="5"/>
+        <f>N60-P60</f>
         <v>7</v>
       </c>
       <c r="Q60" s="1"/>
@@ -4234,7 +4281,7 @@
       <c r="B61" s="5">
         <v>43062</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <v>25838</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -4253,18 +4300,18 @@
         <v>40</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="3"/>
+        <f>G61-H61</f>
         <v>5</v>
       </c>
       <c r="J61">
-        <f t="shared" si="4"/>
+        <f>I61-K61-L61</f>
         <v>5</v>
       </c>
       <c r="N61" s="1">
         <v>4</v>
       </c>
       <c r="O61" s="1">
-        <f t="shared" si="5"/>
+        <f>N61-P61</f>
         <v>4</v>
       </c>
       <c r="Q61" s="1"/>
@@ -4276,7 +4323,7 @@
       <c r="B62" s="5">
         <v>43092</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>18351</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -4295,18 +4342,18 @@
         <v>10</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="3"/>
+        <f>G62-H62</f>
         <v>4</v>
       </c>
       <c r="J62">
-        <f t="shared" si="4"/>
+        <f>I62-K62-L62</f>
         <v>4</v>
       </c>
       <c r="N62" s="1">
         <v>9</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="5"/>
+        <f>N62-P62</f>
         <v>9</v>
       </c>
       <c r="Q62" s="1" t="s">
@@ -4320,7 +4367,7 @@
       <c r="B63" s="5">
         <v>43094</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <v>22833</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -4339,18 +4386,18 @@
         <v>35</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="3"/>
+        <f>G63-H63</f>
         <v>3</v>
       </c>
       <c r="J63">
-        <f t="shared" si="4"/>
+        <f>I63-K63-L63</f>
         <v>3</v>
       </c>
       <c r="N63" s="1">
         <v>8</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" si="5"/>
+        <f>N63-P63</f>
         <v>8</v>
       </c>
       <c r="Q63" s="1"/>
@@ -4362,7 +4409,7 @@
       <c r="B64" s="5">
         <v>43150</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <v>19840</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -4381,18 +4428,18 @@
         <v>8</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" si="3"/>
+        <f>G64-H64</f>
         <v>6</v>
       </c>
       <c r="J64">
-        <f t="shared" si="4"/>
+        <f>I64-K64-L64</f>
         <v>6</v>
       </c>
       <c r="N64" s="1">
         <v>4</v>
       </c>
       <c r="O64" s="1">
-        <f t="shared" si="5"/>
+        <f>N64-P64</f>
         <v>4</v>
       </c>
       <c r="Q64" s="1"/>
@@ -4404,7 +4451,7 @@
       <c r="B65" s="5">
         <v>43151</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="8">
         <v>19372</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -4423,18 +4470,18 @@
         <v>24</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="3"/>
+        <f>G65-H65</f>
         <v>5</v>
       </c>
       <c r="J65">
-        <f t="shared" si="4"/>
+        <f>I65-K65-L65</f>
         <v>5</v>
       </c>
       <c r="N65" s="1">
         <v>4</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="5"/>
+        <f>N65-P65</f>
         <v>4</v>
       </c>
       <c r="Q65" s="1"/>
@@ -4446,7 +4493,7 @@
       <c r="B66" s="5">
         <v>43183</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="8">
         <v>2517</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -4465,11 +4512,11 @@
         <v>42</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="3"/>
+        <f>G66-H66</f>
         <v>6</v>
       </c>
       <c r="J66">
-        <f t="shared" si="4"/>
+        <f>I66-K66-L66</f>
         <v>6</v>
       </c>
       <c r="M66">
@@ -4479,7 +4526,7 @@
         <v>7</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="5"/>
+        <f>N66-P66</f>
         <v>7</v>
       </c>
       <c r="Q66" s="1"/>
@@ -4491,7 +4538,7 @@
       <c r="B67" s="5">
         <v>43193</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="8">
         <v>1420</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -4510,18 +4557,18 @@
         <v>13</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" ref="I67:I98" si="6">G67-H67</f>
+        <f>G67-H67</f>
         <v>3</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J98" si="7">I67-K67-L67</f>
+        <f>I67-K67-L67</f>
         <v>3</v>
       </c>
       <c r="N67" s="1">
         <v>7</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" ref="O67:O98" si="8">N67-P67</f>
+        <f>N67-P67</f>
         <v>7</v>
       </c>
       <c r="Q67" s="1" t="s">
@@ -4535,7 +4582,7 @@
       <c r="B68" s="5">
         <v>43193</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="8">
         <v>2671</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -4554,18 +4601,18 @@
         <v>12</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" si="6"/>
+        <f>G68-H68</f>
         <v>4</v>
       </c>
       <c r="J68">
-        <f t="shared" si="7"/>
+        <f>I68-K68-L68</f>
         <v>4</v>
       </c>
       <c r="N68" s="1">
         <v>7</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" si="8"/>
+        <f>N68-P68</f>
         <v>7</v>
       </c>
       <c r="Q68" s="1" t="s">
@@ -4579,7 +4626,7 @@
       <c r="B69" s="5">
         <v>43196</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="8">
         <v>237</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -4598,18 +4645,18 @@
         <v>15</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="6"/>
+        <f>G69-H69</f>
         <v>3</v>
       </c>
       <c r="J69">
-        <f t="shared" si="7"/>
+        <f>I69-K69-L69</f>
         <v>3</v>
       </c>
       <c r="N69" s="1">
         <v>7</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="8"/>
+        <f>N69-P69</f>
         <v>7</v>
       </c>
       <c r="Q69" s="1"/>
@@ -4621,7 +4668,7 @@
       <c r="B70" s="5">
         <v>43199</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="8">
         <v>36432</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -4640,18 +4687,18 @@
         <v>55</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" si="6"/>
+        <f>G70-H70</f>
         <v>4</v>
       </c>
       <c r="J70">
-        <f t="shared" si="7"/>
+        <f>I70-K70-L70</f>
         <v>4</v>
       </c>
       <c r="N70" s="1">
         <v>5</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" si="8"/>
+        <f>N70-P70</f>
         <v>5</v>
       </c>
       <c r="Q70" s="1"/>
@@ -4663,7 +4710,7 @@
       <c r="B71" s="5">
         <v>43200</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>33104</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -4682,18 +4729,18 @@
         <v>19</v>
       </c>
       <c r="I71" s="1">
-        <f t="shared" si="6"/>
+        <f>G71-H71</f>
         <v>4</v>
       </c>
       <c r="J71">
-        <f t="shared" si="7"/>
+        <f>I71-K71-L71</f>
         <v>4</v>
       </c>
       <c r="N71" s="1">
         <v>4</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" si="8"/>
+        <f>N71-P71</f>
         <v>4</v>
       </c>
       <c r="Q71" s="1"/>
@@ -4705,7 +4752,7 @@
       <c r="B72" s="5">
         <v>43201</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="8">
         <v>174</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -4724,18 +4771,18 @@
         <v>15</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="6"/>
+        <f>G72-H72</f>
         <v>6</v>
       </c>
       <c r="J72">
-        <f t="shared" si="7"/>
+        <f>I72-K72-L72</f>
         <v>6</v>
       </c>
       <c r="N72" s="1">
         <v>7</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="8"/>
+        <f>N72-P72</f>
         <v>7</v>
       </c>
       <c r="Q72" s="1" t="s">
@@ -4749,7 +4796,7 @@
       <c r="B73" s="5">
         <v>43203</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="8">
         <v>343</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -4768,18 +4815,18 @@
         <v>14</v>
       </c>
       <c r="I73" s="1">
-        <f t="shared" si="6"/>
+        <f>G73-H73</f>
         <v>5</v>
       </c>
       <c r="J73">
-        <f t="shared" si="7"/>
+        <f>I73-K73-L73</f>
         <v>5</v>
       </c>
       <c r="N73" s="1">
         <v>7</v>
       </c>
       <c r="O73" s="1">
-        <f t="shared" si="8"/>
+        <f>N73-P73</f>
         <v>7</v>
       </c>
       <c r="Q73" s="1"/>
@@ -4791,7 +4838,7 @@
       <c r="B74" s="5">
         <v>43207</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <v>19428</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -4810,18 +4857,18 @@
         <v>42</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" si="6"/>
+        <f>G74-H74</f>
         <v>5</v>
       </c>
       <c r="J74">
-        <f t="shared" si="7"/>
+        <f>I74-K74-L74</f>
         <v>5</v>
       </c>
       <c r="N74" s="1">
         <v>7</v>
       </c>
       <c r="O74" s="1">
-        <f t="shared" si="8"/>
+        <f>N74-P74</f>
         <v>7</v>
       </c>
       <c r="Q74" s="1"/>
@@ -4833,7 +4880,7 @@
       <c r="B75" s="5">
         <v>43209</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="8">
         <v>37267</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -4852,18 +4899,18 @@
         <v>50</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" si="6"/>
+        <f>G75-H75</f>
         <v>3</v>
       </c>
       <c r="J75">
-        <f t="shared" si="7"/>
+        <f>I75-K75-L75</f>
         <v>3</v>
       </c>
       <c r="N75" s="1">
         <v>7</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="8"/>
+        <f>N75-P75</f>
         <v>7</v>
       </c>
       <c r="Q75" s="1"/>
@@ -4875,7 +4922,7 @@
       <c r="B76" s="5">
         <v>43211</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="8">
         <v>36034</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -4894,18 +4941,18 @@
         <v>15</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" si="6"/>
+        <f>G76-H76</f>
         <v>3</v>
       </c>
       <c r="J76">
-        <f t="shared" si="7"/>
+        <f>I76-K76-L76</f>
         <v>3</v>
       </c>
       <c r="N76" s="1">
         <v>5</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" si="8"/>
+        <f>N76-P76</f>
         <v>5</v>
       </c>
       <c r="Q76" s="1"/>
@@ -4917,7 +4964,7 @@
       <c r="B77" s="5">
         <v>43214</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>4648</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -4936,18 +4983,18 @@
         <v>50</v>
       </c>
       <c r="I77" s="1">
-        <f t="shared" si="6"/>
+        <f>G77-H77</f>
         <v>6</v>
       </c>
       <c r="J77">
-        <f t="shared" si="7"/>
+        <f>I77-K77-L77</f>
         <v>6</v>
       </c>
       <c r="N77" s="1">
         <v>7</v>
       </c>
       <c r="O77" s="1">
-        <f t="shared" si="8"/>
+        <f>N77-P77</f>
         <v>7</v>
       </c>
       <c r="Q77" s="1"/>
@@ -4959,7 +5006,7 @@
       <c r="B78" s="5">
         <v>43215</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="8">
         <v>36549</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -4978,11 +5025,11 @@
         <v>43</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" si="6"/>
+        <f>G78-H78</f>
         <v>6</v>
       </c>
       <c r="J78">
-        <f t="shared" si="7"/>
+        <f>I78-K78-L78</f>
         <v>6</v>
       </c>
       <c r="M78">
@@ -4992,7 +5039,7 @@
         <v>5</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" si="8"/>
+        <f>N78-P78</f>
         <v>5</v>
       </c>
       <c r="Q78" s="1" t="s">
@@ -5006,7 +5053,7 @@
       <c r="B79" s="5">
         <v>43215</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="8">
         <v>2780</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -5025,18 +5072,18 @@
         <v>15</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" si="6"/>
+        <f>G79-H79</f>
         <v>5</v>
       </c>
       <c r="J79">
-        <f t="shared" si="7"/>
+        <f>I79-K79-L79</f>
         <v>5</v>
       </c>
       <c r="N79" s="1">
         <v>7</v>
       </c>
       <c r="O79" s="1">
-        <f t="shared" si="8"/>
+        <f>N79-P79</f>
         <v>7</v>
       </c>
       <c r="Q79" s="1"/>
@@ -5048,7 +5095,7 @@
       <c r="B80" s="5">
         <v>43227</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="8">
         <v>2675</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -5067,18 +5114,18 @@
         <v>12</v>
       </c>
       <c r="I80" s="1">
-        <f t="shared" si="6"/>
+        <f>G80-H80</f>
         <v>5</v>
       </c>
       <c r="J80">
-        <f t="shared" si="7"/>
+        <f>I80-K80-L80</f>
         <v>5</v>
       </c>
       <c r="N80" s="1">
         <v>7</v>
       </c>
       <c r="O80" s="1">
-        <f t="shared" si="8"/>
+        <f>N80-P80</f>
         <v>7</v>
       </c>
       <c r="Q80" s="1"/>
@@ -5090,7 +5137,7 @@
       <c r="B81" s="5">
         <v>43227</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="8">
         <v>9585</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -5109,18 +5156,18 @@
         <v>17</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" si="6"/>
+        <f>G81-H81</f>
         <v>5</v>
       </c>
       <c r="J81">
-        <f t="shared" si="7"/>
+        <f>I81-K81-L81</f>
         <v>5</v>
       </c>
       <c r="N81" s="1">
         <v>7</v>
       </c>
       <c r="O81" s="1">
-        <f t="shared" si="8"/>
+        <f>N81-P81</f>
         <v>7</v>
       </c>
       <c r="Q81" s="1"/>
@@ -5132,7 +5179,7 @@
       <c r="B82" s="5">
         <v>43227</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="8">
         <v>15717</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -5151,18 +5198,18 @@
         <v>30</v>
       </c>
       <c r="I82" s="1">
-        <f t="shared" si="6"/>
+        <f>G82-H82</f>
         <v>5</v>
       </c>
       <c r="J82">
-        <f t="shared" si="7"/>
+        <f>I82-K82-L82</f>
         <v>5</v>
       </c>
       <c r="N82" s="1">
         <v>7</v>
       </c>
       <c r="O82" s="1">
-        <f t="shared" si="8"/>
+        <f>N82-P82</f>
         <v>7</v>
       </c>
       <c r="Q82" s="1"/>
@@ -5174,7 +5221,7 @@
       <c r="B83" s="5">
         <v>43231</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="8">
         <v>186</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -5193,18 +5240,18 @@
         <v>12</v>
       </c>
       <c r="I83" s="1">
-        <f t="shared" si="6"/>
+        <f>G83-H83</f>
         <v>3</v>
       </c>
       <c r="J83">
-        <f t="shared" si="7"/>
+        <f>I83-K83-L83</f>
         <v>3</v>
       </c>
       <c r="N83" s="1">
         <v>6</v>
       </c>
       <c r="O83" s="1">
-        <f t="shared" si="8"/>
+        <f>N83-P83</f>
         <v>6</v>
       </c>
       <c r="Q83" s="1"/>
@@ -5216,7 +5263,7 @@
       <c r="B84" s="5">
         <v>43231</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="8">
         <v>6871</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -5235,18 +5282,18 @@
         <v>7</v>
       </c>
       <c r="I84" s="1">
-        <f t="shared" si="6"/>
+        <f>G84-H84</f>
         <v>5</v>
       </c>
       <c r="J84">
-        <f t="shared" si="7"/>
+        <f>I84-K84-L84</f>
         <v>5</v>
       </c>
       <c r="N84" s="1">
         <v>8</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" si="8"/>
+        <f>N84-P84</f>
         <v>8</v>
       </c>
       <c r="Q84" s="1"/>
@@ -5258,7 +5305,7 @@
       <c r="B85" s="5">
         <v>43238</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="8">
         <v>32882</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -5277,18 +5324,18 @@
         <v>6</v>
       </c>
       <c r="I85" s="1">
-        <f t="shared" si="6"/>
+        <f>G85-H85</f>
         <v>6</v>
       </c>
       <c r="J85">
-        <f t="shared" si="7"/>
+        <f>I85-K85-L85</f>
         <v>6</v>
       </c>
       <c r="N85" s="1">
         <v>5</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" si="8"/>
+        <f>N85-P85</f>
         <v>5</v>
       </c>
       <c r="Q85" s="1"/>
@@ -5300,7 +5347,7 @@
       <c r="B86" s="5">
         <v>43240</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="8">
         <v>21516</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -5319,18 +5366,18 @@
         <v>50</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" si="6"/>
+        <f>G86-H86</f>
         <v>6</v>
       </c>
       <c r="J86">
-        <f t="shared" si="7"/>
+        <f>I86-K86-L86</f>
         <v>6</v>
       </c>
       <c r="N86" s="1">
         <v>8</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="8"/>
+        <f>N86-P86</f>
         <v>8</v>
       </c>
       <c r="Q86" s="1"/>
@@ -5342,7 +5389,7 @@
       <c r="B87" s="5">
         <v>43241</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="8">
         <v>867</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -5361,18 +5408,18 @@
         <v>17</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" si="6"/>
+        <f>G87-H87</f>
         <v>5</v>
       </c>
       <c r="J87">
-        <f t="shared" si="7"/>
+        <f>I87-K87-L87</f>
         <v>5</v>
       </c>
       <c r="N87" s="1">
         <v>6</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="8"/>
+        <f>N87-P87</f>
         <v>6</v>
       </c>
       <c r="Q87" s="1"/>
@@ -5384,7 +5431,7 @@
       <c r="B88" s="5">
         <v>43251</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="8">
         <v>14883</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -5403,18 +5450,18 @@
         <v>7</v>
       </c>
       <c r="I88" s="1">
-        <f t="shared" si="6"/>
+        <f>G88-H88</f>
         <v>3</v>
       </c>
       <c r="J88">
-        <f t="shared" si="7"/>
+        <f>I88-K88-L88</f>
         <v>3</v>
       </c>
       <c r="N88" s="1">
         <v>6</v>
       </c>
       <c r="O88" s="1">
-        <f t="shared" si="8"/>
+        <f>N88-P88</f>
         <v>6</v>
       </c>
       <c r="Q88" s="1"/>
@@ -5426,7 +5473,7 @@
       <c r="B89" s="5">
         <v>43256</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="8">
         <v>2790</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -5445,18 +5492,18 @@
         <v>16</v>
       </c>
       <c r="I89" s="1">
-        <f t="shared" si="6"/>
+        <f>G89-H89</f>
         <v>3</v>
       </c>
       <c r="J89">
-        <f t="shared" si="7"/>
+        <f>I89-K89-L89</f>
         <v>3</v>
       </c>
       <c r="N89" s="1">
         <v>4</v>
       </c>
       <c r="O89" s="1">
-        <f t="shared" si="8"/>
+        <f>N89-P89</f>
         <v>4</v>
       </c>
       <c r="Q89" s="1"/>
@@ -5468,7 +5515,7 @@
       <c r="B90" s="5">
         <v>43256</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="8">
         <v>2687</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -5487,18 +5534,18 @@
         <v>19</v>
       </c>
       <c r="I90" s="1">
-        <f t="shared" si="6"/>
+        <f>G90-H90</f>
         <v>6</v>
       </c>
       <c r="J90">
-        <f t="shared" si="7"/>
+        <f>I90-K90-L90</f>
         <v>6</v>
       </c>
       <c r="N90" s="1">
         <v>5</v>
       </c>
       <c r="O90" s="1">
-        <f t="shared" si="8"/>
+        <f>N90-P90</f>
         <v>5</v>
       </c>
       <c r="Q90" s="1"/>
@@ -5510,7 +5557,7 @@
       <c r="B91" s="5">
         <v>43259</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="8">
         <v>15147</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -5529,18 +5576,18 @@
         <v>10</v>
       </c>
       <c r="I91" s="1">
-        <f t="shared" si="6"/>
+        <f>G91-H91</f>
         <v>4</v>
       </c>
       <c r="J91">
-        <f t="shared" si="7"/>
+        <f>I91-K91-L91</f>
         <v>4</v>
       </c>
       <c r="N91" s="1">
         <v>7</v>
       </c>
       <c r="O91" s="1">
-        <f t="shared" si="8"/>
+        <f>N91-P91</f>
         <v>7</v>
       </c>
       <c r="Q91" s="1"/>
@@ -5552,7 +5599,7 @@
       <c r="B92" s="5">
         <v>43259</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="8">
         <v>16</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -5571,18 +5618,18 @@
         <v>13</v>
       </c>
       <c r="I92" s="1">
-        <f t="shared" si="6"/>
+        <f>G92-H92</f>
         <v>4</v>
       </c>
       <c r="J92">
-        <f t="shared" si="7"/>
+        <f>I92-K92-L92</f>
         <v>4</v>
       </c>
       <c r="N92" s="1">
         <v>6</v>
       </c>
       <c r="O92" s="1">
-        <f t="shared" si="8"/>
+        <f>N92-P92</f>
         <v>6</v>
       </c>
       <c r="Q92" s="1"/>
@@ -5594,7 +5641,7 @@
       <c r="B93" s="5">
         <v>43260</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="8">
         <v>21808</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -5613,18 +5660,18 @@
         <v>14</v>
       </c>
       <c r="I93" s="1">
-        <f t="shared" si="6"/>
+        <f>G93-H93</f>
         <v>5</v>
       </c>
       <c r="J93">
-        <f t="shared" si="7"/>
+        <f>I93-K93-L93</f>
         <v>5</v>
       </c>
       <c r="N93" s="1">
         <v>7</v>
       </c>
       <c r="O93" s="1">
-        <f t="shared" si="8"/>
+        <f>N93-P93</f>
         <v>7</v>
       </c>
       <c r="Q93" s="1"/>
@@ -5636,7 +5683,7 @@
       <c r="B94" s="5">
         <v>43261</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="8">
         <v>24830</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -5655,18 +5702,18 @@
         <v>13</v>
       </c>
       <c r="I94" s="1">
-        <f t="shared" si="6"/>
+        <f>G94-H94</f>
         <v>3</v>
       </c>
       <c r="J94">
-        <f t="shared" si="7"/>
+        <f>I94-K94-L94</f>
         <v>3</v>
       </c>
       <c r="N94" s="1">
         <v>7</v>
       </c>
       <c r="O94" s="1">
-        <f t="shared" si="8"/>
+        <f>N94-P94</f>
         <v>7</v>
       </c>
       <c r="Q94" s="1"/>
@@ -5678,7 +5725,7 @@
       <c r="B95" s="5">
         <v>43265</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="8">
         <v>5313</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -5697,18 +5744,18 @@
         <v>30</v>
       </c>
       <c r="I95" s="1">
-        <f t="shared" si="6"/>
+        <f>G95-H95</f>
         <v>5</v>
       </c>
       <c r="J95">
-        <f t="shared" si="7"/>
+        <f>I95-K95-L95</f>
         <v>5</v>
       </c>
       <c r="N95" s="1">
         <v>5</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" si="8"/>
+        <f>N95-P95</f>
         <v>5</v>
       </c>
       <c r="Q95" s="1"/>
@@ -5720,7 +5767,7 @@
       <c r="B96" s="5">
         <v>43273</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="8">
         <v>42595</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -5739,18 +5786,18 @@
         <v>40</v>
       </c>
       <c r="I96" s="1">
-        <f t="shared" si="6"/>
+        <f>G96-H96</f>
         <v>6</v>
       </c>
       <c r="J96">
-        <f t="shared" si="7"/>
+        <f>I96-K96-L96</f>
         <v>6</v>
       </c>
       <c r="N96" s="1">
         <v>4</v>
       </c>
       <c r="O96" s="1">
-        <f t="shared" si="8"/>
+        <f>N96-P96</f>
         <v>4</v>
       </c>
       <c r="Q96" s="1"/>
@@ -5762,7 +5809,7 @@
       <c r="B97" s="5">
         <v>43277</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="8">
         <v>210</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -5781,18 +5828,18 @@
         <v>32</v>
       </c>
       <c r="I97" s="1">
-        <f t="shared" si="6"/>
+        <f>G97-H97</f>
         <v>5</v>
       </c>
       <c r="J97">
-        <f t="shared" si="7"/>
+        <f>I97-K97-L97</f>
         <v>5</v>
       </c>
       <c r="N97" s="1">
         <v>7</v>
       </c>
       <c r="O97" s="1">
-        <f t="shared" si="8"/>
+        <f>N97-P97</f>
         <v>7</v>
       </c>
       <c r="Q97" s="1"/>
@@ -5804,7 +5851,7 @@
       <c r="B98" s="5">
         <v>43278</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="8">
         <v>38759</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -5823,18 +5870,18 @@
         <v>2</v>
       </c>
       <c r="I98" s="1">
-        <f t="shared" si="6"/>
+        <f>G98-H98</f>
         <v>5</v>
       </c>
       <c r="J98">
-        <f t="shared" si="7"/>
+        <f>I98-K98-L98</f>
         <v>5</v>
       </c>
       <c r="N98" s="1">
         <v>7</v>
       </c>
       <c r="O98" s="1">
-        <f t="shared" si="8"/>
+        <f>N98-P98</f>
         <v>7</v>
       </c>
       <c r="Q98" s="1"/>
@@ -5846,7 +5893,7 @@
       <c r="B99" s="5">
         <v>43278</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="8">
         <v>37266</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -5865,18 +5912,18 @@
         <v>40</v>
       </c>
       <c r="I99" s="1">
-        <f t="shared" ref="I99:I130" si="9">G99-H99</f>
+        <f>G99-H99</f>
         <v>5</v>
       </c>
       <c r="J99">
-        <f t="shared" ref="J99:J130" si="10">I99-K99-L99</f>
+        <f>I99-K99-L99</f>
         <v>5</v>
       </c>
       <c r="N99" s="1">
         <v>9</v>
       </c>
       <c r="O99" s="1">
-        <f t="shared" ref="O99:O130" si="11">N99-P99</f>
+        <f>N99-P99</f>
         <v>9</v>
       </c>
       <c r="Q99" s="1" t="s">
@@ -5892,7 +5939,7 @@
       <c r="B100" s="5">
         <v>43278</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="8">
         <v>94</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -5911,18 +5958,18 @@
         <v>18</v>
       </c>
       <c r="I100" s="1">
-        <f t="shared" si="9"/>
+        <f>G100-H100</f>
         <v>3</v>
       </c>
       <c r="J100">
-        <f t="shared" si="10"/>
+        <f>I100-K100-L100</f>
         <v>3</v>
       </c>
       <c r="N100" s="1">
         <v>7</v>
       </c>
       <c r="O100" s="1">
-        <f t="shared" si="11"/>
+        <f>N100-P100</f>
         <v>7</v>
       </c>
       <c r="Q100" s="1"/>
@@ -5936,7 +5983,7 @@
       <c r="B101" s="5">
         <v>43278</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="8">
         <v>50</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -5955,18 +6002,18 @@
         <v>14</v>
       </c>
       <c r="I101" s="1">
-        <f t="shared" si="9"/>
+        <f>G101-H101</f>
         <v>5</v>
       </c>
       <c r="J101">
-        <f t="shared" si="10"/>
+        <f>I101-K101-L101</f>
         <v>5</v>
       </c>
       <c r="N101" s="1">
         <v>4</v>
       </c>
       <c r="O101" s="1">
-        <f t="shared" si="11"/>
+        <f>N101-P101</f>
         <v>4</v>
       </c>
       <c r="Q101" s="1"/>
@@ -5980,7 +6027,7 @@
       <c r="B102" s="5">
         <v>43278</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="8">
         <v>54</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -5999,18 +6046,18 @@
         <v>13</v>
       </c>
       <c r="I102" s="1">
-        <f t="shared" si="9"/>
+        <f>G102-H102</f>
         <v>4</v>
       </c>
       <c r="J102">
-        <f t="shared" si="10"/>
+        <f>I102-K102-L102</f>
         <v>4</v>
       </c>
       <c r="N102" s="1">
         <v>4</v>
       </c>
       <c r="O102" s="1">
-        <f t="shared" si="11"/>
+        <f>N102-P102</f>
         <v>4</v>
       </c>
       <c r="Q102" s="1"/>
@@ -6024,7 +6071,7 @@
       <c r="B103" s="5">
         <v>43281</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="8">
         <v>47</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -6043,18 +6090,18 @@
         <v>32</v>
       </c>
       <c r="I103" s="1">
-        <f t="shared" si="9"/>
+        <f>G103-H103</f>
         <v>3</v>
       </c>
       <c r="J103">
-        <f t="shared" si="10"/>
+        <f>I103-K103-L103</f>
         <v>3</v>
       </c>
       <c r="N103" s="1">
         <v>5</v>
       </c>
       <c r="O103" s="1">
-        <f t="shared" si="11"/>
+        <f>N103-P103</f>
         <v>5</v>
       </c>
       <c r="Q103" s="1"/>
@@ -6068,8 +6115,11 @@
       <c r="B104" s="5">
         <v>43290</v>
       </c>
-      <c r="C104" s="11">
+      <c r="C104" s="1">
         <v>9222</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>169</v>
@@ -6084,26 +6134,298 @@
         <v>18</v>
       </c>
       <c r="I104" s="1">
-        <f t="shared" si="9"/>
+        <f>G104-H104</f>
         <v>4</v>
       </c>
       <c r="J104">
+        <f>I104-K104-L104</f>
         <v>4</v>
       </c>
       <c r="N104" s="1">
         <v>5</v>
       </c>
       <c r="O104" s="1">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-    </row>
+        <f>N104-P104</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="5">
+        <v>43303</v>
+      </c>
+      <c r="C105" s="1">
+        <v>93</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G105" s="1">
+        <v>24</v>
+      </c>
+      <c r="H105" s="1">
+        <v>20</v>
+      </c>
+      <c r="I105" s="1">
+        <f>G105-H105</f>
+        <v>4</v>
+      </c>
+      <c r="J105">
+        <f>I105-K105-L105</f>
+        <v>4</v>
+      </c>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105" s="1">
+        <v>7</v>
+      </c>
+      <c r="O105" s="1">
+        <f>N105-P105</f>
+        <v>7</v>
+      </c>
+      <c r="P105"/>
+      <c r="Q105"/>
+    </row>
+    <row r="106" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="5">
+        <v>43303</v>
+      </c>
+      <c r="C106" s="1">
+        <v>153</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G106" s="1">
+        <v>24</v>
+      </c>
+      <c r="H106" s="1">
+        <v>19</v>
+      </c>
+      <c r="I106" s="1">
+        <f>G106-H106</f>
+        <v>5</v>
+      </c>
+      <c r="J106">
+        <f>I106-K106-L106</f>
+        <v>5</v>
+      </c>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106" s="1">
+        <v>7</v>
+      </c>
+      <c r="O106" s="1">
+        <f>N106-P106</f>
+        <v>7</v>
+      </c>
+      <c r="P106"/>
+      <c r="Q106"/>
+    </row>
+    <row r="107" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="12">
+        <v>43305</v>
+      </c>
+      <c r="C107" s="1">
+        <v>14548</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G107" s="1">
+        <v>22</v>
+      </c>
+      <c r="H107" s="1">
+        <v>17</v>
+      </c>
+      <c r="I107" s="1">
+        <f>G107-H107</f>
+        <v>5</v>
+      </c>
+      <c r="J107">
+        <f>I107-K107-L107</f>
+        <v>5</v>
+      </c>
+      <c r="N107" s="1">
+        <v>5</v>
+      </c>
+      <c r="O107" s="1">
+        <f>N107-P107</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="12">
+        <v>43314</v>
+      </c>
+      <c r="C108" s="1">
+        <v>4517</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G108" s="1">
+        <v>15</v>
+      </c>
+      <c r="H108" s="1">
+        <v>12</v>
+      </c>
+      <c r="I108" s="1">
+        <f>G108-H108</f>
+        <v>3</v>
+      </c>
+      <c r="J108">
+        <f>I108-K108-L108</f>
+        <v>3</v>
+      </c>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1">
+        <v>6</v>
+      </c>
+      <c r="O108" s="1">
+        <f>N108-P108</f>
+        <v>6</v>
+      </c>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="12">
+        <v>43314</v>
+      </c>
+      <c r="C109" s="1">
+        <v>6386</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G109" s="1">
+        <v>26</v>
+      </c>
+      <c r="H109" s="1">
+        <v>20</v>
+      </c>
+      <c r="I109" s="1">
+        <f>G109-H109</f>
+        <v>6</v>
+      </c>
+      <c r="J109">
+        <f>I109-K109-L109</f>
+        <v>6</v>
+      </c>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1">
+        <v>6</v>
+      </c>
+      <c r="O109" s="1">
+        <f>N109-P109</f>
+        <v>6</v>
+      </c>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+    </row>
+    <row r="110" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="12">
+        <v>43317</v>
+      </c>
+      <c r="C110" s="1">
+        <v>9188</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G110" s="1">
+        <v>16</v>
+      </c>
+      <c r="H110" s="1">
+        <v>10</v>
+      </c>
+      <c r="I110" s="1">
+        <f>G110-H110</f>
+        <v>6</v>
+      </c>
+      <c r="J110">
+        <f>I110-K110-L110</f>
+        <v>6</v>
+      </c>
+      <c r="N110" s="1">
+        <v>6</v>
+      </c>
+      <c r="O110" s="1">
+        <f>N110-P110</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sortState ref="A3:Q112">
+    <sortCondition ref="A82"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J5:J103 J2:J3">
+  <conditionalFormatting sqref="J2:J3 J5:J110">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6127,18 +6449,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J104">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
